--- a/data/hotels_by_city/Houston/Houston_shard_81.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_81.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="350">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56761-d1513517-Reviews-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Galveston-Hotels-Candlewood-Suites-Hotel-Texas-City.h2814388.Hotel-Information?chkin=7%2F8%2F2018&amp;chkout=7%2F9%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530294220814&amp;cancellable=false&amp;regionId=1341&amp;vip=false&amp;c=1cbef8a4-60c1-41ed-a906-d49f1feca510&amp;mctc=9&amp;exp_dp=81.9&amp;exp_ts=1530294221455&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,928 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r521219669-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>56761</t>
+  </si>
+  <si>
+    <t>1513517</t>
+  </si>
+  <si>
+    <t>521219669</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>Fairly standard for this type of hotel</t>
+  </si>
+  <si>
+    <t>The rooms were clean and fairly big. As you wood expect there was a place you could get food/snacks etc. The location is convenient for major roads but there is nothing within walking distance. Ok for a business hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2017</t>
+  </si>
+  <si>
+    <t>The rooms were clean and fairly big. As you wood expect there was a place you could get food/snacks etc. The location is convenient for major roads but there is nothing within walking distance. Ok for a business hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r516492186-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>516492186</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Poor hotel, poor staff</t>
+  </si>
+  <si>
+    <t>Per the website, we checked the box for the baby crib to be placed in our room. We also designated that we had 3 people on our room, 2 adults and a child under the age of one. Upon arrival to the hotel, we were informed that they do not have baby cribs or pack and plays available. We were then asked to sign our contract for the room without any reconciliation to the problem at hand. We then asked for a manager and we discussed the matter with him and he said that they do not have this option. I showed him our reservation confirmation email with the appropriate checked box directly from the website. His only offer was a 30 dollar credit to the room after we asked due to the major inconvenience this caused. The staff was rude and unwilling to help solve the problem. We ended up going to Wal-Mart to purchase a pack and play for a one night stay. This was extremely disappointing and could have been avoided with a simple phone call to explain that the options we checked were unavailable. I will never stay at a candlewood suites again and will do my best to avoid any other properties in this chain. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Per the website, we checked the box for the baby crib to be placed in our room. We also designated that we had 3 people on our room, 2 adults and a child under the age of one. Upon arrival to the hotel, we were informed that they do not have baby cribs or pack and plays available. We were then asked to sign our contract for the room without any reconciliation to the problem at hand. We then asked for a manager and we discussed the matter with him and he said that they do not have this option. I showed him our reservation confirmation email with the appropriate checked box directly from the website. His only offer was a 30 dollar credit to the room after we asked due to the major inconvenience this caused. The staff was rude and unwilling to help solve the problem. We ended up going to Wal-Mart to purchase a pack and play for a one night stay. This was extremely disappointing and could have been avoided with a simple phone call to explain that the options we checked were unavailable. I will never stay at a candlewood suites again and will do my best to avoid any other properties in this chain. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r515171160-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>515171160</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getaway Weekend </t>
+  </si>
+  <si>
+    <t>Room, bathroom were clean.   The AC doesn’t put out really cold air.  The bed was all right I did feel a lot of the springs in the bed. It was a dead weather bug in the kitchen.  For $85 not really sure if it was worth it or not.   I really thought Candlewood was nicer than this.  MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2017</t>
+  </si>
+  <si>
+    <t>Room, bathroom were clean.   The AC doesn’t put out really cold air.  The bed was all right I did feel a lot of the springs in the bed. It was a dead weather bug in the kitchen.  For $85 not really sure if it was worth it or not.   I really thought Candlewood was nicer than this.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r488850428-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>488850428</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Meh....</t>
+  </si>
+  <si>
+    <t>Upon arrival the couple with us asked to upgrade to a king room and the girl told them they didn't have one.  After that, the phone rang at least 4 times and the other girl offered a single king room--still not available to our friends.  Staff acted like it was a pain to check us in.  Our room smelled musty like there had been a water leak--a fan was running in our room when we arrived.  No maid service--you have to carry down your towels to exchange and ask for additional shampoo.  All that being said, The room was nice and met our needs nicely.   A little friendliness and replenishment of towels would make this a perfect stay for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Upon arrival the couple with us asked to upgrade to a king room and the girl told them they didn't have one.  After that, the phone rang at least 4 times and the other girl offered a single king room--still not available to our friends.  Staff acted like it was a pain to check us in.  Our room smelled musty like there had been a water leak--a fan was running in our room when we arrived.  No maid service--you have to carry down your towels to exchange and ask for additional shampoo.  All that being said, The room was nice and met our needs nicely.   A little friendliness and replenishment of towels would make this a perfect stay for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r472682952-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>472682952</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Solid choice</t>
+  </si>
+  <si>
+    <t>The facility excited our expectations.Staff was genuine and friendly Room was clean and comfortable Location was great for us. Things to consider: Room service does not come daily but the reception desk will exchange linens and towels. We did not know this prior to booking, but also didn't mind it. Only free coffee, they also have an extensive selection of breakfast and snack items. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2017</t>
+  </si>
+  <si>
+    <t>The facility excited our expectations.Staff was genuine and friendly Room was clean and comfortable Location was great for us. Things to consider: Room service does not come daily but the reception desk will exchange linens and towels. We did not know this prior to booking, but also didn't mind it. Only free coffee, they also have an extensive selection of breakfast and snack items. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r459990499-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>459990499</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Watch out for extra charges!</t>
+  </si>
+  <si>
+    <t>Found that there were additional charges to our credit card. Contacted the hotel &amp; was told by the "General Manager" that the charge was for Tupperware which the guest had signed for. The story changed after I stated that a mistake had been made &amp; no one signed for any items. Then she told me that the staff counts all items after a guest checks out and found these to be missing. Stayed in the room for less than 8 hours, never used the kitchen, but am still charged with items. Also, when I first entered the room the bedspread was on the floor &amp; the bathroom appeared to have been just recently used. Horrible Hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Texas City, responded to this reviewResponded March 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2017</t>
+  </si>
+  <si>
+    <t>Found that there were additional charges to our credit card. Contacted the hotel &amp; was told by the "General Manager" that the charge was for Tupperware which the guest had signed for. The story changed after I stated that a mistake had been made &amp; no one signed for any items. Then she told me that the staff counts all items after a guest checks out and found these to be missing. Stayed in the room for less than 8 hours, never used the kitchen, but am still charged with items. Also, when I first entered the room the bedspread was on the floor &amp; the bathroom appeared to have been just recently used. Horrible Hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r432790621-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>432790621</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pet friendly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the few pet friendly hotels near LaMarque. Staff is friendly and it's conveniently located . Beds are very comfortable but on the small size, esp when your used to sleeping in a king.  Does have a great outside area with 2 gas grills and if you need utensils, just ask. They literally have everything! </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r429899392-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>429899392</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Rooms CLEAN and great staff.</t>
+  </si>
+  <si>
+    <t>My family and I stayed there in August for a few days.  Everything was good, worth the short drive from Galveston to save a few dollars.  The night person, RIchard was friendly and always had a smile on his face as we came through the lobby late at night.  He was very professional and always alert to his surroundings.  Thanks for a great stay</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r426657838-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>426657838</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>Only stayed one night. The room was quiet but not cleaned very well. The front desk woman seemed to be one of the maids...she was nice but had a dirty unkept appearance. This hotel is in an industrial/low income residential area of town but for the price paid, i thought it was ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Texas City, responded to this reviewResponded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Only stayed one night. The room was quiet but not cleaned very well. The front desk woman seemed to be one of the maids...she was nice but had a dirty unkept appearance. This hotel is in an industrial/low income residential area of town but for the price paid, i thought it was ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r344238635-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>344238635</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Ruined Plans, That's Just Bad Business</t>
+  </si>
+  <si>
+    <t>I booked a room for one night for a me and two other ladies. It was for my birthday to get away for one night. I invited 4 of my friend's to stop by for food and a few laughs. We are all between the ages of 35-45 and one was in her 80's. We are all christian ladies who just wanted to unwind for my birthday. I paid for the room in advance the week before the week of my birthday. About an hour later after I left, The manager called me to ask me how many people was I having in the from for my party. I told him it would only be three staying and about 4 people stopping by and leaving to go home. Mind you we live in this area, so we are not far from home. I told him that none of us drink and we are christian women. It would just be eating and conversation. Now its Friday, I've bought what I needed and told my friends what time to meet, needless to say I'm excited to unwind. I go to the hotel to get my room and the manager gets ready to check me In and ask me again how many people and he says, "No you can only have two adults and two children". I told him that is not what you said when I paid for my room last week....I booked a room for one night for a me and two other ladies. It was for my birthday to get away for one night. I invited 4 of my friend's to stop by for food and a few laughs. We are all between the ages of 35-45 and one was in her 80's. We are all christian ladies who just wanted to unwind for my birthday. I paid for the room in advance the week before the week of my birthday. About an hour later after I left, The manager called me to ask me how many people was I having in the from for my party. I told him it would only be three staying and about 4 people stopping by and leaving to go home. Mind you we live in this area, so we are not far from home. I told him that none of us drink and we are christian women. It would just be eating and conversation. Now its Friday, I've bought what I needed and told my friends what time to meet, needless to say I'm excited to unwind. I go to the hotel to get my room and the manager gets ready to check me In and ask me again how many people and he says, "No you can only have two adults and two children". I told him that is not what you said when I paid for my room last week. Needless to say, my plans for a great evening was ruined by the manager and I cancelled my room and got my money back on a non-refundable room rate. I will never go back to this hotel, because the manager could have told me the day he called me that he didn't want us to stay, but to wait until the day of my plans...That was just wrong to do! I will not recommend any of my family or relatives to stay here. "That just Bad Business"MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Texas City, responded to this reviewResponded February 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2016</t>
+  </si>
+  <si>
+    <t>I booked a room for one night for a me and two other ladies. It was for my birthday to get away for one night. I invited 4 of my friend's to stop by for food and a few laughs. We are all between the ages of 35-45 and one was in her 80's. We are all christian ladies who just wanted to unwind for my birthday. I paid for the room in advance the week before the week of my birthday. About an hour later after I left, The manager called me to ask me how many people was I having in the from for my party. I told him it would only be three staying and about 4 people stopping by and leaving to go home. Mind you we live in this area, so we are not far from home. I told him that none of us drink and we are christian women. It would just be eating and conversation. Now its Friday, I've bought what I needed and told my friends what time to meet, needless to say I'm excited to unwind. I go to the hotel to get my room and the manager gets ready to check me In and ask me again how many people and he says, "No you can only have two adults and two children". I told him that is not what you said when I paid for my room last week....I booked a room for one night for a me and two other ladies. It was for my birthday to get away for one night. I invited 4 of my friend's to stop by for food and a few laughs. We are all between the ages of 35-45 and one was in her 80's. We are all christian ladies who just wanted to unwind for my birthday. I paid for the room in advance the week before the week of my birthday. About an hour later after I left, The manager called me to ask me how many people was I having in the from for my party. I told him it would only be three staying and about 4 people stopping by and leaving to go home. Mind you we live in this area, so we are not far from home. I told him that none of us drink and we are christian women. It would just be eating and conversation. Now its Friday, I've bought what I needed and told my friends what time to meet, needless to say I'm excited to unwind. I go to the hotel to get my room and the manager gets ready to check me In and ask me again how many people and he says, "No you can only have two adults and two children". I told him that is not what you said when I paid for my room last week. Needless to say, my plans for a great evening was ruined by the manager and I cancelled my room and got my money back on a non-refundable room rate. I will never go back to this hotel, because the manager could have told me the day he called me that he didn't want us to stay, but to wait until the day of my plans...That was just wrong to do! I will not recommend any of my family or relatives to stay here. "That just Bad Business"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r334902620-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>334902620</t>
+  </si>
+  <si>
+    <t>12/25/2015</t>
+  </si>
+  <si>
+    <t>Friendly Staff, clean rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are very happy to find a comfortable, clean hotel for weekend visits to Galveston. Although they're onshore, it's only 20 minutes from the sea wall on the island. Basically, we trade the convenience of staying right on the island for a price that saves us $50 to $100 a night for the same category of accommodation. Clean, comfortable and cost effective. </t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r331614544-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>331614544</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Great Even for a One Night Stay</t>
+  </si>
+  <si>
+    <t>My daughters were performing at Dickens on the Strand and were spending the night at the Girl Scout property on the Island. Instead of traveling to Galveston from Houston twice in a row my husband and I decided to get a hotel room instead. I started pricing hotels on the Island and they were quite pricey. I then decided to look a bit further afield and the Texas City Candlewood came up with a very reasonable price. We've used Candlewoods when we stay as a family for several days for tournaments but I'd never stayed in one just with my husband for a one night stay.This particular hotel was approximately 25 minutes from the Island and very easy to reach. The hotel was very clean and the front staff were very, very thorough and helpful. The room was spacious and clean and even though it was just a place to spend the night my husband and I were very happy with the accommodations. We would definitely stay there again should the need arise.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>My daughters were performing at Dickens on the Strand and were spending the night at the Girl Scout property on the Island. Instead of traveling to Galveston from Houston twice in a row my husband and I decided to get a hotel room instead. I started pricing hotels on the Island and they were quite pricey. I then decided to look a bit further afield and the Texas City Candlewood came up with a very reasonable price. We've used Candlewoods when we stay as a family for several days for tournaments but I'd never stayed in one just with my husband for a one night stay.This particular hotel was approximately 25 minutes from the Island and very easy to reach. The hotel was very clean and the front staff were very, very thorough and helpful. The room was spacious and clean and even though it was just a place to spend the night my husband and I were very happy with the accommodations. We would definitely stay there again should the need arise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r305111356-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>305111356</t>
+  </si>
+  <si>
+    <t>08/30/2015</t>
+  </si>
+  <si>
+    <t>Nice and quiet but a little pricey</t>
+  </si>
+  <si>
+    <t>The location is great for this hotel, as this part of HWY 146 is still nice and quiet.  Our room was large, clean, and it would be a plus if you were staying multiple days in the area, since you have a large fridge and your own ice maker.  Beds were comfortable, and there were lots of nice towels.  Now, would I stay here again?  Not sure, the price was a little high, especially with no breakfast included.  I was a little put off by the check-in experience as well.....the desk clerk was not very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Texas City, responded to this reviewResponded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2015</t>
+  </si>
+  <si>
+    <t>The location is great for this hotel, as this part of HWY 146 is still nice and quiet.  Our room was large, clean, and it would be a plus if you were staying multiple days in the area, since you have a large fridge and your own ice maker.  Beds were comfortable, and there were lots of nice towels.  Now, would I stay here again?  Not sure, the price was a little high, especially with no breakfast included.  I was a little put off by the check-in experience as well.....the desk clerk was not very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r293425404-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>293425404</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Off the Island Affordable Hotel</t>
+  </si>
+  <si>
+    <t>This hotel was clean and affordable. The staff were friendly and informative. They made checking in and out simple and fast. We lost a few hotel keys and they were so nice about the whole thing. The snack bar had chips, juice and muffins that cost about a dollar. The tea and coffee were free all day. I would stay here again. Walmart, Target, and a Kroger were right down the street to help us prep for our beach day in Galveston.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r287451048-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>287451048</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>My wife, 2 yr old son and I stayed for 5 days. The staff was friendly. The suite was clean, and my son appreciated a normal cable subscription and not some basic hotel cable. The only cons are no continental breakfast, and no pool. It was within 20 minutes from Kemah, Galveston and everywhere else we wanted to go.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r264243031-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>264243031</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Great Stay at a Great Price</t>
+  </si>
+  <si>
+    <t>We stayed here before going on our cruise and didn't want to spend an arm and a leg but didn't want to end up in a dump. We got more then that here. It was a large suite with a huge bathroom and comfy bed. The price was cheaper then most hotels in Galveston. We only had about a 15 min drive at most to the port and it was an easy drive. It is located right off the highway but it was very quiet and we never felt uneasy about the area it was located at all. It seemed to be a pretty decent area. I did see that someone else said to be cautious about how you reserve the room because to get the best rate there are no refunds but the second best rate is about $10 more or something.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>We stayed here before going on our cruise and didn't want to spend an arm and a leg but didn't want to end up in a dump. We got more then that here. It was a large suite with a huge bathroom and comfy bed. The price was cheaper then most hotels in Galveston. We only had about a 15 min drive at most to the port and it was an easy drive. It is located right off the highway but it was very quiet and we never felt uneasy about the area it was located at all. It seemed to be a pretty decent area. I did see that someone else said to be cautious about how you reserve the room because to get the best rate there are no refunds but the second best rate is about $10 more or something.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r263873429-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>263873429</t>
+  </si>
+  <si>
+    <t>04/05/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly and qualify service. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before I arrived the hotel. I called the hotel and I requested what I needed.  When I arrived there and they have set up everything what I need!   That's awesome and less work for me. Closed captioned is easily to use on TV and no struggled.  The disposer is not working and they fixed right away!  Awesome and friendly staffs.  </t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r242335674-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>242335674</t>
+  </si>
+  <si>
+    <t>12/01/2014</t>
+  </si>
+  <si>
+    <t>Watch How you Reserve to this Hotel--Reund Policy is not Fair!</t>
+  </si>
+  <si>
+    <t>I went online to reserve Thanksgiving Night (Thursday Nov. 27) about 8:30 Pm.  Got two rooms for a good price of $80.00 each for a 2 night stay ($361. 00 + Tax). Later that night I got sick and by morning knew that we could not travel.  Called the hotel early on November 28 and they did not have a reservation taken at the site but through  Expedia.com.  Called Expedia and learned reservation had been made through the online service  Expedia dropped their cancellation charge fee after I told my reason for not keeping the appointment. They call the Hotel to explain. BUT the hotel charged me one night for each room because I did not cancel 48 hours prior to arrival of 3:00 PM. on Friday  My response was that 48 hours had not passed between reservations made and arrival time and I was too sick to travel.  Candlewood Hotel would not budge either with me or the representative from Expedia.  Their excuse is not fair!  And, I am pretty angry with Candlewood.  Glad I did not go because if their accommodations, service and city is a poor as the excuse for taking $180.00 of my money I would be even madder.  Glad I paid with a credit card that have good Resolution to unsatisfied customer.  I will never stay at Candlewood.  but will write a letter and call my credit card company.  I did not go on the...I went online to reserve Thanksgiving Night (Thursday Nov. 27) about 8:30 Pm.  Got two rooms for a good price of $80.00 each for a 2 night stay ($361. 00 + Tax). Later that night I got sick and by morning knew that we could not travel.  Called the hotel early on November 28 and they did not have a reservation taken at the site but through  Expedia.com.  Called Expedia and learned reservation had been made through the online service  Expedia dropped their cancellation charge fee after I told my reason for not keeping the appointment. They call the Hotel to explain. BUT the hotel charged me one night for each room because I did not cancel 48 hours prior to arrival of 3:00 PM. on Friday  My response was that 48 hours had not passed between reservations made and arrival time and I was too sick to travel.  Candlewood Hotel would not budge either with me or the representative from Expedia.  Their excuse is not fair!  And, I am pretty angry with Candlewood.  Glad I did not go because if their accommodations, service and city is a poor as the excuse for taking $180.00 of my money I would be even madder.  Glad I paid with a credit card that have good Resolution to unsatisfied customer.  I will never stay at Candlewood.  but will write a letter and call my credit card company.  I did not go on the planed trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Texas City, responded to this reviewResponded December 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2014</t>
+  </si>
+  <si>
+    <t>I went online to reserve Thanksgiving Night (Thursday Nov. 27) about 8:30 Pm.  Got two rooms for a good price of $80.00 each for a 2 night stay ($361. 00 + Tax). Later that night I got sick and by morning knew that we could not travel.  Called the hotel early on November 28 and they did not have a reservation taken at the site but through  Expedia.com.  Called Expedia and learned reservation had been made through the online service  Expedia dropped their cancellation charge fee after I told my reason for not keeping the appointment. They call the Hotel to explain. BUT the hotel charged me one night for each room because I did not cancel 48 hours prior to arrival of 3:00 PM. on Friday  My response was that 48 hours had not passed between reservations made and arrival time and I was too sick to travel.  Candlewood Hotel would not budge either with me or the representative from Expedia.  Their excuse is not fair!  And, I am pretty angry with Candlewood.  Glad I did not go because if their accommodations, service and city is a poor as the excuse for taking $180.00 of my money I would be even madder.  Glad I paid with a credit card that have good Resolution to unsatisfied customer.  I will never stay at Candlewood.  but will write a letter and call my credit card company.  I did not go on the...I went online to reserve Thanksgiving Night (Thursday Nov. 27) about 8:30 Pm.  Got two rooms for a good price of $80.00 each for a 2 night stay ($361. 00 + Tax). Later that night I got sick and by morning knew that we could not travel.  Called the hotel early on November 28 and they did not have a reservation taken at the site but through  Expedia.com.  Called Expedia and learned reservation had been made through the online service  Expedia dropped their cancellation charge fee after I told my reason for not keeping the appointment. They call the Hotel to explain. BUT the hotel charged me one night for each room because I did not cancel 48 hours prior to arrival of 3:00 PM. on Friday  My response was that 48 hours had not passed between reservations made and arrival time and I was too sick to travel.  Candlewood Hotel would not budge either with me or the representative from Expedia.  Their excuse is not fair!  And, I am pretty angry with Candlewood.  Glad I did not go because if their accommodations, service and city is a poor as the excuse for taking $180.00 of my money I would be even madder.  Glad I paid with a credit card that have good Resolution to unsatisfied customer.  I will never stay at Candlewood.  but will write a letter and call my credit card company.  I did not go on the planed trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r218720020-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>218720020</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>Very Nice!</t>
+  </si>
+  <si>
+    <t>It was only 15 minutes from Galveston which was good. Was very clean. The staff was really nice. I loved that they have washing and dryer there for free. I would stay there again. If I had to say something bas it would be that there is no pool and the room is a little small.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r197615894-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>197615894</t>
+  </si>
+  <si>
+    <t>03/16/2014</t>
+  </si>
+  <si>
+    <t>Recommended</t>
+  </si>
+  <si>
+    <t>We arrived to disappointment. Traveling with two small kids we had booked (I thought) the two-room suite. My wife and I were looking forward to some privacy and also avoiding the early lights out otherwise required in a one-room suite--due to the kid's earlier bedtime.But when we arrived we were presented with a typical two-bed, one room suite.The impressive part was that the manager arranged to free up the suite we had expected and moved us into it for the two days we were staying. (He gave the guest already booked for the that suite an upgrade--he also knew this customer from previous stays.) I was delighted and impressed with the calm, courteous, and unexpected extra service we received. It was also a clean, quiet, and comfortable suite and we enjoyed our stay--and would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>We arrived to disappointment. Traveling with two small kids we had booked (I thought) the two-room suite. My wife and I were looking forward to some privacy and also avoiding the early lights out otherwise required in a one-room suite--due to the kid's earlier bedtime.But when we arrived we were presented with a typical two-bed, one room suite.The impressive part was that the manager arranged to free up the suite we had expected and moved us into it for the two days we were staying. (He gave the guest already booked for the that suite an upgrade--he also knew this customer from previous stays.) I was delighted and impressed with the calm, courteous, and unexpected extra service we received. It was also a clean, quiet, and comfortable suite and we enjoyed our stay--and would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r192690726-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>192690726</t>
+  </si>
+  <si>
+    <t>01/31/2014</t>
+  </si>
+  <si>
+    <t>Spacious and clean</t>
+  </si>
+  <si>
+    <t>Stayed at several Candlewood Suites while driving around Texas and was happy with them all. Rooms have a small kitchen area and spacious bathroom and were well maintained and clean. A great place to stay when you want a little extra room.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r186096565-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>186096565</t>
+  </si>
+  <si>
+    <t>11/27/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay and very close to Galveston Island!</t>
+  </si>
+  <si>
+    <t>We stayed at Candlewood Suites Texas City the night before our cruise. Got a great price (half of what hotels on the Galveston island were charging and these mini-suites were better than many of those! It's only about 10-15 minutes away from the island so it's great for cruisers.  Flat screen TV, DVD player, full size fridge, microwave, coffee maker, sink &amp; stovetop as well as utensils/glasses/cups etc. It's all you need if you bring in your own food/drink as we did. Beds were comfortable and ac system worked fine.  Bathroom was decent as well.  The front desk and customer service was great!  Very friendly and always helpful as others have mentioned in reviews.  They have a laundromat which is FREE for guests with room key access (just bring your own soap/etc);  I liked having this!  Also a small workout room/gym next to it. Location is a little  tricky to find/get to;  exit I-45 on 1764 east then at 146 stop light, turn left, stay on access road (dont take ramp to 146!)  you will run into Candlewood Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at Candlewood Suites Texas City the night before our cruise. Got a great price (half of what hotels on the Galveston island were charging and these mini-suites were better than many of those! It's only about 10-15 minutes away from the island so it's great for cruisers.  Flat screen TV, DVD player, full size fridge, microwave, coffee maker, sink &amp; stovetop as well as utensils/glasses/cups etc. It's all you need if you bring in your own food/drink as we did. Beds were comfortable and ac system worked fine.  Bathroom was decent as well.  The front desk and customer service was great!  Very friendly and always helpful as others have mentioned in reviews.  They have a laundromat which is FREE for guests with room key access (just bring your own soap/etc);  I liked having this!  Also a small workout room/gym next to it. Location is a little  tricky to find/get to;  exit I-45 on 1764 east then at 146 stop light, turn left, stay on access road (dont take ramp to 146!)  you will run into Candlewood Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r183843479-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>183843479</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>Candlewood Suites Taxas City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed three days, there was a Coffee pot in the room &amp; they had regular &amp; decaf Coffee, well after I found out there was no daily cleaning service I ask for two more packs of Coffee. My answer was No but for $ 00.50 each I could add them to my room rate or get dressed &amp; come down to get a cup free. I got cold so I turned the Heater on &amp; it Stunk up the room. I had to turn on the AC on high then open the door to get the smell out. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r178564136-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>178564136</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>EXCELLENT</t>
+  </si>
+  <si>
+    <t>This is one of the BEST properties I have ever stayed at. The staff there is so down to earth and makes you feel right at home. They never skipped a beat speaking to me with direct contact every time I walked thru the Lobby. Front Desk is so amazing. They are all so sweet and nice; I just cannot say enough about them, they ALL deserve 10stars. I was reading some bad comment about the place before even going to the property, I am SO glad I did not let that effect my decision on going. Yeah, so they ask for an incidental at check in... So what! Have you ever heard of one ruins it for all. Not to mention they have everything you need as far as in room amenities, so if something is damaged or missing then who should pay? Not the Hotel own up and take responsabilities (didn't you learn that in like 2nd grade). I just think some people get upset when everything does not go their way, don't go on a vacation on a budget; that's all I'm saying. But like I said one of the BEST Hotels I have ever stayed in VERY VERY CLEAN and Front Desk is VERY VERY sweet. Thanks for making me feel at home!See y'all soon!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>This is one of the BEST properties I have ever stayed at. The staff there is so down to earth and makes you feel right at home. They never skipped a beat speaking to me with direct contact every time I walked thru the Lobby. Front Desk is so amazing. They are all so sweet and nice; I just cannot say enough about them, they ALL deserve 10stars. I was reading some bad comment about the place before even going to the property, I am SO glad I did not let that effect my decision on going. Yeah, so they ask for an incidental at check in... So what! Have you ever heard of one ruins it for all. Not to mention they have everything you need as far as in room amenities, so if something is damaged or missing then who should pay? Not the Hotel own up and take responsabilities (didn't you learn that in like 2nd grade). I just think some people get upset when everything does not go their way, don't go on a vacation on a budget; that's all I'm saying. But like I said one of the BEST Hotels I have ever stayed in VERY VERY CLEAN and Front Desk is VERY VERY sweet. Thanks for making me feel at home!See y'all soon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r173271799-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>173271799</t>
+  </si>
+  <si>
+    <t>08/20/2013</t>
+  </si>
+  <si>
+    <t>$50 Deposit!</t>
+  </si>
+  <si>
+    <t>I had booked a weekend at this hotel. No where it indicated there will be a deposit required. Not even in my confirmation email or their website.  After reading the reviews on here, I called their customer service. The lady I spoke with said, deposit require for only cash payers. Then I called the hotels front desk and they confirmed there will be a $50 deposit. Even after I stated its not listed any where on their website or the email I received. Canceled my reservations. Thank goodness for the reviewers on TripAdvisor!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Texas City, responded to this reviewResponded September 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2013</t>
+  </si>
+  <si>
+    <t>I had booked a weekend at this hotel. No where it indicated there will be a deposit required. Not even in my confirmation email or their website.  After reading the reviews on here, I called their customer service. The lady I spoke with said, deposit require for only cash payers. Then I called the hotels front desk and they confirmed there will be a $50 deposit. Even after I stated its not listed any where on their website or the email I received. Canceled my reservations. Thank goodness for the reviewers on TripAdvisor!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r164251714-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>164251714</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>The hotel and rooms are gorgeous and spacious; however, there is not a lot around by way of restaurants. Just stayed in the one in League City last month and liked it better due to the location! But for one night with two children it was great!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r159747661-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>159747661</t>
+  </si>
+  <si>
+    <t>05/05/2013</t>
+  </si>
+  <si>
+    <t>Good value for what was received</t>
+  </si>
+  <si>
+    <t>My cousins &amp; I stayed here for a mini family reunion.  The front desk was very friendly &amp; helpful with directions &amp; restaurants.  The rooms were clean, spacious &amp; kitchen was set up for use.  The rooms even included a small dining table &amp; a recliner.  Wifi was good.  For the price, we felt we received more than what we paid for.  For smokers, they still offer smoking rooms.  Would def stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Texas City, responded to this reviewResponded May 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2013</t>
+  </si>
+  <si>
+    <t>My cousins &amp; I stayed here for a mini family reunion.  The front desk was very friendly &amp; helpful with directions &amp; restaurants.  The rooms were clean, spacious &amp; kitchen was set up for use.  The rooms even included a small dining table &amp; a recliner.  Wifi was good.  For the price, we felt we received more than what we paid for.  For smokers, they still offer smoking rooms.  Would def stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r155796853-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>155796853</t>
+  </si>
+  <si>
+    <t>03/27/2013</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Great value compared to nearby properties. The property is somewhat hard to find if you are not familiar with the area. We called the front desk from nearby, and Carolyn directed us straight to the hotel!  Thanks!  Do not rely on GPS (we had GPS and two IPhones with maps and google maps). The hotel is located on the north-bound feeder street (Hwy 146), just north of 1764(Palmer Rd.).  We had a really nice, 2 nite stay with our mini Schnauzer. Very nice Queen studio suite on the 3d floor with very comfortable bed. We didn't use the cupboard much but we were very thankful for the fresh, complimentary coffee that they kept brewed in the cupboard all day long (even very early in the morning)!  We were thankful for the kitchen with all the utensils for cooking, the fridge, microwave, stovetop and everything we needed. The staff and management were very friendly and helpful!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Great value compared to nearby properties. The property is somewhat hard to find if you are not familiar with the area. We called the front desk from nearby, and Carolyn directed us straight to the hotel!  Thanks!  Do not rely on GPS (we had GPS and two IPhones with maps and google maps). The hotel is located on the north-bound feeder street (Hwy 146), just north of 1764(Palmer Rd.).  We had a really nice, 2 nite stay with our mini Schnauzer. Very nice Queen studio suite on the 3d floor with very comfortable bed. We didn't use the cupboard much but we were very thankful for the fresh, complimentary coffee that they kept brewed in the cupboard all day long (even very early in the morning)!  We were thankful for the kitchen with all the utensils for cooking, the fridge, microwave, stovetop and everything we needed. The staff and management were very friendly and helpful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r153949850-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>153949850</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>Perfect, except for the wifi.</t>
+  </si>
+  <si>
+    <t>Maybe the perfect room? Everything looks new, kitchenette w/granite, full-size refrigerator, big microwave. Nice recliner, big flat screen TV with lots of TV stations. Bath is granite with nice shower head, curved shower rod, plush towels. Had a helpful conversation with Manager when making reservations, he called me back to say one night I wanted was now available. Easy check in, got the room I wanted. Everything very nicely kept up. Well lighted parking lot. Texas City is less than 15 miles from Galveston. Texas City has a nice series of parks on the Gulf at the Dike. I biked there most days, good place to watch the ships coming into and out of the port.The only problem, WIFI is bad, one of those types that gets slow when there is lots of usage. Does it make sense for a hotel to have this type of service in a hotel, to now provide enough band width for having full occupancy with most people online? In an extended-stay type of hotel that wants to get businesspeople? I was advised to connect to wired, which I did. I have my own router so I set up my own network. Even that one has issues, including it just going down at times. Owner seems to think he has fixed the problem, but he needs a better Wi-Fi.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maybe the perfect room? Everything looks new, kitchenette w/granite, full-size refrigerator, big microwave. Nice recliner, big flat screen TV with lots of TV stations. Bath is granite with nice shower head, curved shower rod, plush towels. Had a helpful conversation with Manager when making reservations, he called me back to say one night I wanted was now available. Easy check in, got the room I wanted. Everything very nicely kept up. Well lighted parking lot. Texas City is less than 15 miles from Galveston. Texas City has a nice series of parks on the Gulf at the Dike. I biked there most days, good place to watch the ships coming into and out of the port.The only problem, WIFI is bad, one of those types that gets slow when there is lots of usage. Does it make sense for a hotel to have this type of service in a hotel, to now provide enough band width for having full occupancy with most people online? In an extended-stay type of hotel that wants to get businesspeople? I was advised to connect to wired, which I did. I have my own router so I set up my own network. Even that one has issues, including it just going down at times. Owner seems to think he has fixed the problem, but he needs a better Wi-Fi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r153407436-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>153407436</t>
+  </si>
+  <si>
+    <t>02/28/2013</t>
+  </si>
+  <si>
+    <t>Bumpy Start...Ended Fine</t>
+  </si>
+  <si>
+    <t>First night stay was the most uncomfortable I've experienced in a hotel stay.  Although our room was supposed to be non-smoking, the smell proved otherwise.  Blame this to the room being on the 1st floor next next to the outside smoking area.  Unfortunately, the hotel was booked solid and no other rooms were available.  Fortunately, Ik was very accommodating and relocated us the next day to a 3rd floor room. Overall, the rest of the staff was not the most organized or accommodating. They lacked an adequate supply of linens and the night shift had to wait on the morning shift to accomplish simple requests. Apart from this, the hotel was  reasonably priced, had clean rooms, and was conveniently located minutes away from the city center.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Texas City, responded to this reviewResponded March 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2013</t>
+  </si>
+  <si>
+    <t>First night stay was the most uncomfortable I've experienced in a hotel stay.  Although our room was supposed to be non-smoking, the smell proved otherwise.  Blame this to the room being on the 1st floor next next to the outside smoking area.  Unfortunately, the hotel was booked solid and no other rooms were available.  Fortunately, Ik was very accommodating and relocated us the next day to a 3rd floor room. Overall, the rest of the staff was not the most organized or accommodating. They lacked an adequate supply of linens and the night shift had to wait on the morning shift to accomplish simple requests. Apart from this, the hotel was  reasonably priced, had clean rooms, and was conveniently located minutes away from the city center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r147193142-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>147193142</t>
+  </si>
+  <si>
+    <t>12/11/2012</t>
+  </si>
+  <si>
+    <t>Clean, comfortable room</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here the night before leaving on a cruise out of Galveston.  We selected this hotel because it was cheaper than those in Galveston, and is only about 15 miles from the cruise terminal.  The room was large, clean and had a kitchenette.  The TV channels were a little hard to figure out, but other than that no issues with the room.  My only complaint would be that there is no continental breakfast included.  You had to spend about $10 per couple to get something most places give you for free.  FYI, there are several places to get breakfast within a few blocks of the hotel.  Overall, a good value for an overnight stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here the night before leaving on a cruise out of Galveston.  We selected this hotel because it was cheaper than those in Galveston, and is only about 15 miles from the cruise terminal.  The room was large, clean and had a kitchenette.  The TV channels were a little hard to figure out, but other than that no issues with the room.  My only complaint would be that there is no continental breakfast included.  You had to spend about $10 per couple to get something most places give you for free.  FYI, there are several places to get breakfast within a few blocks of the hotel.  Overall, a good value for an overnight stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r141029631-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>141029631</t>
+  </si>
+  <si>
+    <t>09/23/2012</t>
+  </si>
+  <si>
+    <t>Horrible experience</t>
+  </si>
+  <si>
+    <t>This was the absolute WORST experience of my whole lifetime of hotel stays.  I stayed there because it was close to my home while having my home renovated.  I was there for 10 days.  and NO, there is not regular cleaning service for the rooms.  My bathroom was filthy upon arrival. I had to call someone in to clean it.. 
+Even though they were expecting me... the check in was poor, and they had not bothered to register me until I got there. ... and chose to admit another guest (whom they had pre-registered) ahead of me, though I had arrived BEFORE them.  
+They also had a limited number of carrying carts ... I am disabled and needed one, and when I asked for one, there was none available.  I was told to wait for the cart.  After waiting a while, NO ONE offered to help me get my bags up to the 6th floor!  I had to carry my belongings up with several trips up the elevator.  I was exhausted and it was very late before i finally got all my belongings to the room.  I did not see a baggage cart until the next day. They were supposed to have three, ..but I only saw ONE baggage cart, then a second one a few days later, which the hotel employee was using to place smelly garbage on, to carry out to the garbage dumps.  The third cart was...This was the absolute WORST experience of my whole lifetime of hotel stays.  I stayed there because it was close to my home while having my home renovated.  I was there for 10 days.  and NO, there is not regular cleaning service for the rooms.  My bathroom was filthy upon arrival. I had to call someone in to clean it.. Even though they were expecting me... the check in was poor, and they had not bothered to register me until I got there. ... and chose to admit another guest (whom they had pre-registered) ahead of me, though I had arrived BEFORE them.  They also had a limited number of carrying carts ... I am disabled and needed one, and when I asked for one, there was none available.  I was told to wait for the cart.  After waiting a while, NO ONE offered to help me get my bags up to the 6th floor!  I had to carry my belongings up with several trips up the elevator.  I was exhausted and it was very late before i finally got all my belongings to the room.  I did not see a baggage cart until the next day. They were supposed to have three, ..but I only saw ONE baggage cart, then a second one a few days later, which the hotel employee was using to place smelly garbage on, to carry out to the garbage dumps.  The third cart was obviously hidden...possibly in someones room who did not want to place their baggage on a baggage cart that was used to carry garbage!  (don't they have specific carts to carry waste?)  I had to take my own bedding down (during the day) to clean it and my towels to the front desk to ask for clean towels.  ... and when I needed extra soap, shampoo .. I was told I could PURCHASE it from their store!!!!  shame shame, a 10 day stay and NO amenities!  At one point (after seeing the garbage placed on the baggage cart) .... I brought one up to my room, and used it for the food and water... but only after spraying it with lysol, cleaning it... and placing plastic garbage bags on the base of the cart.  I left it a little too long in my room (trying to get it unloaded,...and resting ... and the front desk, (who by the way saw me use the ONLY cart in the area... called me REPEATEDLY  insisting I get the cart back down stairs.. ...strange, they did not bother other hotel guests... or keep track of the (supposed) other two baggage carts... It is a shame, if they are going to have more guests ...maybe they should first of all use garbage carts to cart garbage out to the dumpsters, and they may want to consider getting more baggage carts for the guests..... since these are the smallest baggage carts I Have ever seen.  At one point I even realized they had been in my room, when I inadvertently, and briefly left a baggage cart in my room during the day time. (I was using these carts for washing clothes, and bedding ..(since they do not offer these services)... and bringing in food, and taking in and out cleaning supplies (since I had to clean my own room).... I needed during my 10 day stay, I held on to the cart because I had had difficulty finding a cart from the beginning...when I first needed it, and as I said, I am disabled, and NO ONE there cared enough to help me get my bags to the room.......  (like I said,there was only ONE available)  They never said anything to me about it but the hostility after that was not only obvious, but blatant.  Also during the stay I had to request pillow cases without blood stains on them., and pillow case covers for those pillows that had not covers... When I was ready to check out, I realized I could use a couple of minutes more to gather my belongings.  I called down 15 minutes before and asked if I could have a few more minutes to gather my belongings... I was told NO, in no uncertain terms... I even re-asked, because I could NOT believe the beligerant way in which I was being addressed.  I was told to get my belongings down immediately.... and that I would be charged if I did not.  I threw my belongings on the cart, (I suppose I was limited on using) ... (without packing) and got down immediately.  But when I went to check out ..it was the worst!  I was treated more like a pest they were trying to get rid of than like a guest who had just paid for a full 10 day stay, with NO amenities, and having to do all the cleaning in the room myself!  (the room was cleaner when I left than when I got there)....I mentioned the fact that the manager wanted to come in my room at night when I was asleep to repair a stopped up drain, and how this was inappropriate.. that it would have been better to wait until the next day (after I checked out) to repair ..what I know know to be a broken stopper)I was told that I was a rude guest (who knew, I did not bother anyone in the hotel including them for anything but asking for fresh towels... and washed my own bedding daily) ... I mentioned the fact that someone had put garbage on the baggage cart, that there were not THREE carts available, and I only saw ONE the whole time I was there, and asked them why they did not mind waking me up in the morning or calling me late at night ....asking ME if there was a cart in MY room, when obviously either other guests had them, or they were hiding them, or not keeping track of the other two carts!  I also asked why there was no one to help a disabled person get their bags to their room.. I also mentioned about the stopped up sink, and the MALE clerk (obviously management) .. who wanted to enter MY ROOM late at night (after 9:30 p.m.) to unstop the drain in the bathroom, though they were called several HOURS earlier)... I would NOT allow him in my room.  I did not know him, and found it strange that they would send someone to my room so late at night (after I was in bed asleep.) ... to work on the sink!  It was at this point the hostility of the clerks and management came out! ...I was told I had been a bother to them, and if I did not like the service .. NOT to come back!  Never to return.  You can rest assured I will never return to this suite.... it has NOTHING to offer but a bed at night and a TV.  ..all cleaning is to be done by the person themselves... they offer WEEKLY cleaning, and if you miss that, you are out of luck!  They are rude to their guests, and will call at any hour or knock at your door at any hour, and will even enter your room when you are away.  I KNOW.  I have NEVER had such poor service.  Could it be that this hotel is run by those from the middle eastern countries and do not understand that in America, we pride ourselves on hospitality, and helping even the most difficult guests, which, I assure you I was not.  I am a fairly easy going person, but this was just a little too much for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Texas City, responded to this reviewResponded October 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2012</t>
+  </si>
+  <si>
+    <t>This was the absolute WORST experience of my whole lifetime of hotel stays.  I stayed there because it was close to my home while having my home renovated.  I was there for 10 days.  and NO, there is not regular cleaning service for the rooms.  My bathroom was filthy upon arrival. I had to call someone in to clean it.. 
+Even though they were expecting me... the check in was poor, and they had not bothered to register me until I got there. ... and chose to admit another guest (whom they had pre-registered) ahead of me, though I had arrived BEFORE them.  
+They also had a limited number of carrying carts ... I am disabled and needed one, and when I asked for one, there was none available.  I was told to wait for the cart.  After waiting a while, NO ONE offered to help me get my bags up to the 6th floor!  I had to carry my belongings up with several trips up the elevator.  I was exhausted and it was very late before i finally got all my belongings to the room.  I did not see a baggage cart until the next day. They were supposed to have three, ..but I only saw ONE baggage cart, then a second one a few days later, which the hotel employee was using to place smelly garbage on, to carry out to the garbage dumps.  The third cart was...This was the absolute WORST experience of my whole lifetime of hotel stays.  I stayed there because it was close to my home while having my home renovated.  I was there for 10 days.  and NO, there is not regular cleaning service for the rooms.  My bathroom was filthy upon arrival. I had to call someone in to clean it.. Even though they were expecting me... the check in was poor, and they had not bothered to register me until I got there. ... and chose to admit another guest (whom they had pre-registered) ahead of me, though I had arrived BEFORE them.  They also had a limited number of carrying carts ... I am disabled and needed one, and when I asked for one, there was none available.  I was told to wait for the cart.  After waiting a while, NO ONE offered to help me get my bags up to the 6th floor!  I had to carry my belongings up with several trips up the elevator.  I was exhausted and it was very late before i finally got all my belongings to the room.  I did not see a baggage cart until the next day. They were supposed to have three, ..but I only saw ONE baggage cart, then a second one a few days later, which the hotel employee was using to place smelly garbage on, to carry out to the garbage dumps.  The third cart was obviously hidden...possibly in someones room who did not want to place their baggage on a baggage cart that was used to carry garbage!  (don't they have specific carts to carry waste?)  I had to take my own bedding down (during the day) to clean it and my towels to the front desk to ask for clean towels.  ... and when I needed extra soap, shampoo .. I was told I could PURCHASE it from their store!!!!  shame shame, a 10 day stay and NO amenities!  At one point (after seeing the garbage placed on the baggage cart) .... I brought one up to my room, and used it for the food and water... but only after spraying it with lysol, cleaning it... and placing plastic garbage bags on the base of the cart.  I left it a little too long in my room (trying to get it unloaded,...and resting ... and the front desk, (who by the way saw me use the ONLY cart in the area... called me REPEATEDLY  insisting I get the cart back down stairs.. ...strange, they did not bother other hotel guests... or keep track of the (supposed) other two baggage carts... It is a shame, if they are going to have more guests ...maybe they should first of all use garbage carts to cart garbage out to the dumpsters, and they may want to consider getting more baggage carts for the guests..... since these are the smallest baggage carts I Have ever seen.  At one point I even realized they had been in my room, when I inadvertently, and briefly left a baggage cart in my room during the day time. (I was using these carts for washing clothes, and bedding ..(since they do not offer these services)... and bringing in food, and taking in and out cleaning supplies (since I had to clean my own room).... I needed during my 10 day stay, I held on to the cart because I had had difficulty finding a cart from the beginning...when I first needed it, and as I said, I am disabled, and NO ONE there cared enough to help me get my bags to the room.......  (like I said,there was only ONE available)  They never said anything to me about it but the hostility after that was not only obvious, but blatant.  Also during the stay I had to request pillow cases without blood stains on them., and pillow case covers for those pillows that had not covers... When I was ready to check out, I realized I could use a couple of minutes more to gather my belongings.  I called down 15 minutes before and asked if I could have a few more minutes to gather my belongings... I was told NO, in no uncertain terms... I even re-asked, because I could NOT believe the beligerant way in which I was being addressed.  I was told to get my belongings down immediately.... and that I would be charged if I did not.  I threw my belongings on the cart, (I suppose I was limited on using) ... (without packing) and got down immediately.  But when I went to check out ..it was the worst!  I was treated more like a pest they were trying to get rid of than like a guest who had just paid for a full 10 day stay, with NO amenities, and having to do all the cleaning in the room myself!  (the room was cleaner when I left than when I got there)....I mentioned the fact that the manager wanted to come in my room at night when I was asleep to repair a stopped up drain, and how this was inappropriate.. that it would have been better to wait until the next day (after I checked out) to repair ..what I know know to be a broken stopper)I was told that I was a rude guest (who knew, I did not bother anyone in the hotel including them for anything but asking for fresh towels... and washed my own bedding daily) ... I mentioned the fact that someone had put garbage on the baggage cart, that there were not THREE carts available, and I only saw ONE the whole time I was there, and asked them why they did not mind waking me up in the morning or calling me late at night ....asking ME if there was a cart in MY room, when obviously either other guests had them, or they were hiding them, or not keeping track of the other two carts!  I also asked why there was no one to help a disabled person get their bags to their room.. I also mentioned about the stopped up sink, and the MALE clerk (obviously management) .. who wanted to enter MY ROOM late at night (after 9:30 p.m.) to unstop the drain in the bathroom, though they were called several HOURS earlier)... I would NOT allow him in my room.  I did not know him, and found it strange that they would send someone to my room so late at night (after I was in bed asleep.) ... to work on the sink!  It was at this point the hostility of the clerks and management came out! ...I was told I had been a bother to them, and if I did not like the service .. NOT to come back!  Never to return.  You can rest assured I will never return to this suite.... it has NOTHING to offer but a bed at night and a TV.  ..all cleaning is to be done by the person themselves... they offer WEEKLY cleaning, and if you miss that, you are out of luck!  They are rude to their guests, and will call at any hour or knock at your door at any hour, and will even enter your room when you are away.  I KNOW.  I have NEVER had such poor service.  Could it be that this hotel is run by those from the middle eastern countries and do not understand that in America, we pride ourselves on hospitality, and helping even the most difficult guests, which, I assure you I was not.  I am a fairly easy going person, but this was just a little too much for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r140887105-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>140887105</t>
+  </si>
+  <si>
+    <t>09/21/2012</t>
+  </si>
+  <si>
+    <t>clean, comfortable, wish we could have stayed longer...</t>
+  </si>
+  <si>
+    <t>This Candlewood Suites is clean and comfortable --it was exactly what I expected.  It closely mirrored a 2010 stay in a different Candlewood.  Front desk staff was friendly and helpful, guest laundry was free -great bonus.  The rooms were very clean and smelled fresh, they provide nice cookware and utensils for use on the cooktop or in the microwave.  They even provided 2 soap packets for the dishwasher.  It is a short distance to restaurants and grocery store, located on a highway, but very quiet.  It was very comfortable and felt almost like home.  If we are ever in Texas City, Texas again this is where we will stay.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r135731878-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>135731878</t>
+  </si>
+  <si>
+    <t>07/29/2012</t>
+  </si>
+  <si>
+    <t>will stay here again, very comfortable and great service</t>
+  </si>
+  <si>
+    <t>We stayed a week at this hotel and were so pleased not only with our room, but with the great customer service. When we checked in and got to our room we noticed there was a leak in the ceiling that was dripping onto the floor.  The front desk staff immediately changed our room and apologized over and over for the trouble.  They then thanked us for letting them know there was a leak and explained that it had rained there every day for many days in a row.  Due to the excessive rain they also had an outside ant problem, no ants inside the hotel, only the outside, that got into our car.  When we told them they offered to have our car cleaned and do anything to rectify the situation.  They did not try to make excuses, they admitted the problems and fixed them asap.  We were very impressed with the staff and the management, will for sure stay here again when visiting.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We stayed a week at this hotel and were so pleased not only with our room, but with the great customer service. When we checked in and got to our room we noticed there was a leak in the ceiling that was dripping onto the floor.  The front desk staff immediately changed our room and apologized over and over for the trouble.  They then thanked us for letting them know there was a leak and explained that it had rained there every day for many days in a row.  Due to the excessive rain they also had an outside ant problem, no ants inside the hotel, only the outside, that got into our car.  When we told them they offered to have our car cleaned and do anything to rectify the situation.  They did not try to make excuses, they admitted the problems and fixed them asap.  We were very impressed with the staff and the management, will for sure stay here again when visiting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r134906270-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>134906270</t>
+  </si>
+  <si>
+    <t>07/20/2012</t>
+  </si>
+  <si>
+    <t>Comfortable, Spacious Rooms and Great Service</t>
+  </si>
+  <si>
+    <t>We decided on a Friday to drive down to Galveston, Texas and needed a room. It was hard to find an affordable and smoke-free room there, so we decided to look in Texas City. My first phone call was to Candlewood Suites and the clerk was so helpful I booked immediately. At check-in I was greeted with a smile and quickly checked-in. We went to the room and I was really not expecting a double bed room to be so spacious. I've stayed other places and the rooms always feel cramp.The front desk clerk even called a cab for us, when we were ready to head out for the night! The beds were comfortable and the service was excellent, so I'll be booking here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>We decided on a Friday to drive down to Galveston, Texas and needed a room. It was hard to find an affordable and smoke-free room there, so we decided to look in Texas City. My first phone call was to Candlewood Suites and the clerk was so helpful I booked immediately. At check-in I was greeted with a smile and quickly checked-in. We went to the room and I was really not expecting a double bed room to be so spacious. I've stayed other places and the rooms always feel cramp.The front desk clerk even called a cab for us, when we were ready to head out for the night! The beds were comfortable and the service was excellent, so I'll be booking here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r127639041-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>127639041</t>
+  </si>
+  <si>
+    <t>04/10/2012</t>
+  </si>
+  <si>
+    <t>Excellent for the price.</t>
+  </si>
+  <si>
+    <t>I loved this hotel!! It was new, clean, roomy, comfortable, had dvd players in every room, free dvd's to rent, and it was in a safe area. The desk person was real nice and friendly and let us know about everything that comes with the room for free like the wifi and use of the gym equipment. The only down side was no pool but other then that is was great. I felt comfortable going outside at night and not haveing the fear of someone running up on me. I will stay here again and you cant beat the price expecially if your staying more then one night. Buy your food and cook it in the kitchenette, that has all you need to cook and save even more money, it even comes with a dishwasher and a refridgerator that makes ice.MoreShow less</t>
+  </si>
+  <si>
+    <t>I loved this hotel!! It was new, clean, roomy, comfortable, had dvd players in every room, free dvd's to rent, and it was in a safe area. The desk person was real nice and friendly and let us know about everything that comes with the room for free like the wifi and use of the gym equipment. The only down side was no pool but other then that is was great. I felt comfortable going outside at night and not haveing the fear of someone running up on me. I will stay here again and you cant beat the price expecially if your staying more then one night. Buy your food and cook it in the kitchenette, that has all you need to cook and save even more money, it even comes with a dishwasher and a refridgerator that makes ice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r124666842-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>124666842</t>
+  </si>
+  <si>
+    <t>02/16/2012</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>We stayed there so we could be close to Galveston to embark on the cruise.  We were greatly impressed .  the young lady on the desk  when we arrived was very helpful and extremely friendly.  The accommodation was great.  Would have been very comfortable for a long period of time.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r121935416-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>121935416</t>
+  </si>
+  <si>
+    <t>12/20/2011</t>
+  </si>
+  <si>
+    <t>ok but not for long term stay</t>
+  </si>
+  <si>
+    <t>i was booked here for a month. while the room it self was ok i had several issues. my first few days hot water was luke warm at best until i reported it to front desk. my door to my room did not close properly and had to have that looked at. dude at check in barely spoke english so there was a huge communication gap. after a few days i found roaches in my room. front desk said it was because they just had exterminator out. most of the staff was ok but the one dude at front desk made me feel uncomfortable and language breakdown was a big problem. i travel a lot and of all the candlewood suites i have stayed at this one is the worst. no  pool, no hot tub, no real ammenities i have become accustom to staying at candlewood. no breakfeast or happy hour. i would just rather stay at a holiday in express and get better service. the only reason i choose places like this are for the kitchen/ apartment type enviroment but also for the public relations i have experienced from other candlewood places . if you just need a place to sleep, no sweat but if you travel a lot and expect that hospitality that you normally get this is not the place.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>i was booked here for a month. while the room it self was ok i had several issues. my first few days hot water was luke warm at best until i reported it to front desk. my door to my room did not close properly and had to have that looked at. dude at check in barely spoke english so there was a huge communication gap. after a few days i found roaches in my room. front desk said it was because they just had exterminator out. most of the staff was ok but the one dude at front desk made me feel uncomfortable and language breakdown was a big problem. i travel a lot and of all the candlewood suites i have stayed at this one is the worst. no  pool, no hot tub, no real ammenities i have become accustom to staying at candlewood. no breakfeast or happy hour. i would just rather stay at a holiday in express and get better service. the only reason i choose places like this are for the kitchen/ apartment type enviroment but also for the public relations i have experienced from other candlewood places . if you just need a place to sleep, no sweat but if you travel a lot and expect that hospitality that you normally get this is not the place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r120838336-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>120838336</t>
+  </si>
+  <si>
+    <t>11/20/2011</t>
+  </si>
+  <si>
+    <t>If you want to be close to Galveston, this is a perfect location.</t>
+  </si>
+  <si>
+    <t>PROS:Less than 15 mins away from Galveston"Very Clean" and Spacious SuitesClose to many eateries and local shopping mallsQuick Check InVery Comfortable BedLarge BathroomLarge Refrig, Stove Top, Dishwasher, Utencils, and cooking potsPet FriendlyNo fee for parkingThe King suite rate was less than $99.00 a nightCONS:The pet deposit is $75.00 and it is non-refundableNo pool at this locationNo breakfast offeredOnly three pillows on the King BedThe TV was flat screen, but rather smallThe curtains in the suite does not close completely, the unwanted sun wake youI would recommended this hotel to friends and family.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r75075152-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>75075152</t>
+  </si>
+  <si>
+    <t>08/13/2010</t>
+  </si>
+  <si>
+    <t>AWFUL!!!!!!!!!!!1</t>
+  </si>
+  <si>
+    <t>Do not stay here.  You will not feel welcomed and you will feel like an outsider if you have kids.  The manager is not helpful or friendly.  Why would you build a hotel and not put a pool in?</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r73440798-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>73440798</t>
+  </si>
+  <si>
+    <t>08/02/2010</t>
+  </si>
+  <si>
+    <t>DON'T EVER BOOK HERE!</t>
+  </si>
+  <si>
+    <t>I booked 2 rooms for my family. When we arrived at the hotel we were refused a room b/c of how many people per room. They would only let two stay in a room with a queen bed. I booked this through Priceline and put how many people would be staying. They offered to let us stay in a suite but we would have to pay the price difference. This hotel does not need to be on Priceline. The girl at the service desk was very nice and tried to get us our money back but it didn't work. We were out the hotel money on Priceline including travel insurance and the hotel money for where we ended up staying. Watch out for the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>I booked 2 rooms for my family. When we arrived at the hotel we were refused a room b/c of how many people per room. They would only let two stay in a room with a queen bed. I booked this through Priceline and put how many people would be staying. They offered to let us stay in a suite but we would have to pay the price difference. This hotel does not need to be on Priceline. The girl at the service desk was very nice and tried to get us our money back but it didn't work. We were out the hotel money on Priceline including travel insurance and the hotel money for where we ended up staying. Watch out for the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r67848569-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>67848569</t>
+  </si>
+  <si>
+    <t>06/17/2010</t>
+  </si>
+  <si>
+    <t>Nice hotel, somewhat off the beaten path</t>
+  </si>
+  <si>
+    <t>I stayed in a studio room with a queen bed. I was impressed by all the appointments in the room. They truly do set you up for an extended stay with dishes, silverware and the like. The location is good and bad. It is close to most of Texas City so restaurants and shopping aren't far away. That said, there's not too much to talk about in Texas City. It's about a 20 minute drive from Galveston, and I know because I did it several times. They charge $75 for a non-refundable pet fee. I got lucky and they didn't find mine, but from what I heard, the owners (who are Indian) would have definitely stuck me with it if they found out. They have a food/supply pantry of sorts that I wasn't impressed with. Food options were very limited and VERY overpriced. I checked out their DVD library which was also quite limited. Not too many good titles either. I paid $80/night. All in all it was a pleasant experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>I stayed in a studio room with a queen bed. I was impressed by all the appointments in the room. They truly do set you up for an extended stay with dishes, silverware and the like. The location is good and bad. It is close to most of Texas City so restaurants and shopping aren't far away. That said, there's not too much to talk about in Texas City. It's about a 20 minute drive from Galveston, and I know because I did it several times. They charge $75 for a non-refundable pet fee. I got lucky and they didn't find mine, but from what I heard, the owners (who are Indian) would have definitely stuck me with it if they found out. They have a food/supply pantry of sorts that I wasn't impressed with. Food options were very limited and VERY overpriced. I checked out their DVD library which was also quite limited. Not too many good titles either. I paid $80/night. All in all it was a pleasant experience.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1463,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1495,2781 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>151</v>
+      </c>
+      <c r="X14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>184</v>
+      </c>
+      <c r="X19" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s">
+        <v>210</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>205</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" t="s">
+        <v>214</v>
+      </c>
+      <c r="K24" t="s">
+        <v>215</v>
+      </c>
+      <c r="L24" t="s">
+        <v>216</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>205</v>
+      </c>
+      <c r="O24" t="s">
+        <v>217</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>219</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>223</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>230</v>
+      </c>
+      <c r="X26" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J27" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" t="s">
+        <v>236</v>
+      </c>
+      <c r="L27" t="s">
+        <v>237</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>239</v>
+      </c>
+      <c r="J28" t="s">
+        <v>240</v>
+      </c>
+      <c r="K28" t="s">
+        <v>241</v>
+      </c>
+      <c r="L28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>243</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>244</v>
+      </c>
+      <c r="X28" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J29" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>252</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>254</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>255</v>
+      </c>
+      <c r="J30" t="s">
+        <v>256</v>
+      </c>
+      <c r="K30" t="s">
+        <v>257</v>
+      </c>
+      <c r="L30" t="s">
+        <v>258</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>252</v>
+      </c>
+      <c r="O30" t="s">
+        <v>217</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>261</v>
+      </c>
+      <c r="J31" t="s">
+        <v>262</v>
+      </c>
+      <c r="K31" t="s">
+        <v>263</v>
+      </c>
+      <c r="L31" t="s">
+        <v>264</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>265</v>
+      </c>
+      <c r="O31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>266</v>
+      </c>
+      <c r="X31" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>269</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>270</v>
+      </c>
+      <c r="J32" t="s">
+        <v>271</v>
+      </c>
+      <c r="K32" t="s">
+        <v>272</v>
+      </c>
+      <c r="L32" t="s">
+        <v>273</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>274</v>
+      </c>
+      <c r="O32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>276</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" t="s">
+        <v>278</v>
+      </c>
+      <c r="K33" t="s">
+        <v>279</v>
+      </c>
+      <c r="L33" t="s">
+        <v>280</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>281</v>
+      </c>
+      <c r="O33" t="s">
+        <v>217</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>282</v>
+      </c>
+      <c r="X33" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>286</v>
+      </c>
+      <c r="J34" t="s">
+        <v>287</v>
+      </c>
+      <c r="K34" t="s">
+        <v>288</v>
+      </c>
+      <c r="L34" t="s">
+        <v>289</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>290</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>292</v>
+      </c>
+      <c r="J35" t="s">
+        <v>293</v>
+      </c>
+      <c r="K35" t="s">
+        <v>294</v>
+      </c>
+      <c r="L35" t="s">
+        <v>295</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>296</v>
+      </c>
+      <c r="O35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>299</v>
+      </c>
+      <c r="J36" t="s">
+        <v>300</v>
+      </c>
+      <c r="K36" t="s">
+        <v>301</v>
+      </c>
+      <c r="L36" t="s">
+        <v>302</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>303</v>
+      </c>
+      <c r="O36" t="s">
+        <v>128</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>305</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>306</v>
+      </c>
+      <c r="J37" t="s">
+        <v>307</v>
+      </c>
+      <c r="K37" t="s">
+        <v>308</v>
+      </c>
+      <c r="L37" t="s">
+        <v>309</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>303</v>
+      </c>
+      <c r="O37" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>311</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>312</v>
+      </c>
+      <c r="J38" t="s">
+        <v>313</v>
+      </c>
+      <c r="K38" t="s">
+        <v>314</v>
+      </c>
+      <c r="L38" t="s">
+        <v>315</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>316</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>317</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>318</v>
+      </c>
+      <c r="J39" t="s">
+        <v>319</v>
+      </c>
+      <c r="K39" t="s">
+        <v>320</v>
+      </c>
+      <c r="L39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>322</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>324</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>325</v>
+      </c>
+      <c r="J40" t="s">
+        <v>326</v>
+      </c>
+      <c r="K40" t="s">
+        <v>327</v>
+      </c>
+      <c r="L40" t="s">
+        <v>328</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>329</v>
+      </c>
+      <c r="O40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>330</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>331</v>
+      </c>
+      <c r="J41" t="s">
+        <v>332</v>
+      </c>
+      <c r="K41" t="s">
+        <v>333</v>
+      </c>
+      <c r="L41" t="s">
+        <v>334</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>335</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>336</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>337</v>
+      </c>
+      <c r="J42" t="s">
+        <v>338</v>
+      </c>
+      <c r="K42" t="s">
+        <v>339</v>
+      </c>
+      <c r="L42" t="s">
+        <v>340</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>341</v>
+      </c>
+      <c r="O42" t="s">
+        <v>62</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>343</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>344</v>
+      </c>
+      <c r="J43" t="s">
+        <v>345</v>
+      </c>
+      <c r="K43" t="s">
+        <v>346</v>
+      </c>
+      <c r="L43" t="s">
+        <v>347</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>348</v>
+      </c>
+      <c r="O43" t="s">
+        <v>217</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_81.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_81.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="553">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r565329392-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>56761</t>
+  </si>
+  <si>
+    <t>1513517</t>
+  </si>
+  <si>
+    <t>565329392</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No complaints </t>
+  </si>
+  <si>
+    <t>I was down visiting my Mom in TC during a rather unusual cold snap. The pipes at my Mom's home froze and eventually burst so off to a hotel we went. We chose this hotel based on feedback from family who had stayed here before during a home remodeling project....I have nothing negative to say. Check in was a breeze, the room (with a kitchenette) was clean and we'll stocked, the bathroom was clean...nothing rattled, beds were comfortable, most importantly it was quiet..which was a concern since it appeared fully booked with primarily refinery workers who work all hours of the night and day. I'd stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Candlewood Suit... T, Manager at Candlewood Suites Texas City, responded to this reviewResponded March 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2018</t>
+  </si>
+  <si>
+    <t>I was down visiting my Mom in TC during a rather unusual cold snap. The pipes at my Mom's home froze and eventually burst so off to a hotel we went. We chose this hotel based on feedback from family who had stayed here before during a home remodeling project....I have nothing negative to say. Check in was a breeze, the room (with a kitchenette) was clean and we'll stocked, the bathroom was clean...nothing rattled, beds were comfortable, most importantly it was quiet..which was a concern since it appeared fully booked with primarily refinery workers who work all hours of the night and day. I'd stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r522988075-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>522988075</t>
+  </si>
+  <si>
+    <t>09/09/2017</t>
+  </si>
+  <si>
+    <t>Trip to Visit Family affected by Hurricane</t>
+  </si>
+  <si>
+    <t>They were quite friendly.  Hotel had a lot of hurricane residents.  Friendly staff and conveniently located.  Loved the fridge in the room.  Room smelled clean and felt very clean.  The gym was big and had plenty of equipment.  The store inside had lots of snacks and ice cream to purchase.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2017</t>
+  </si>
+  <si>
+    <t>They were quite friendly.  Hotel had a lot of hurricane residents.  Friendly staff and conveniently located.  Loved the fridge in the room.  Room smelled clean and felt very clean.  The gym was big and had plenty of equipment.  The store inside had lots of snacks and ice cream to purchase.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r521219669-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
-    <t>56761</t>
-  </si>
-  <si>
-    <t>1513517</t>
-  </si>
-  <si>
     <t>521219669</t>
   </si>
   <si>
@@ -204,9 +258,6 @@
     <t>Per the website, we checked the box for the baby crib to be placed in our room. We also designated that we had 3 people on our room, 2 adults and a child under the age of one. Upon arrival to the hotel, we were informed that they do not have baby cribs or pack and plays available. We were then asked to sign our contract for the room without any reconciliation to the problem at hand. We then asked for a manager and we discussed the matter with him and he said that they do not have this option. I showed him our reservation confirmation email with the appropriate checked box directly from the website. His only offer was a 30 dollar credit to the room after we asked due to the major inconvenience this caused. The staff was rude and unwilling to help solve the problem. We ended up going to Wal-Mart to purchase a pack and play for a one night stay. This was extremely disappointing and could have been avoided with a simple phone call to explain that the options we checked were unavailable. I will never stay at a candlewood suites again and will do my best to avoid any other properties in this chain. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Management response:Responded August 24, 2017</t>
   </si>
   <si>
@@ -243,6 +294,60 @@
     <t>Room, bathroom were clean.   The AC doesn’t put out really cold air.  The bed was all right I did feel a lot of the springs in the bed. It was a dead weather bug in the kitchen.  For $85 not really sure if it was worth it or not.   I really thought Candlewood was nicer than this.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r507822296-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>507822296</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Broken A/C</t>
+  </si>
+  <si>
+    <t>Stayed here because it was close to work for the week and won't be back.  A/C was off when I checked into the room, with a portable fan going at high speed.  Turned A/C on and it seemed to cool okay after a while.  After 2 days noticed a mildewy smell.  After 3 days asked to move to another room.  Pretty much the same experience in the new room.  It seems as if the A/C is not removing the moisture in the air.  The room just seems damp.Also did not like that the TV in the fitness room only got 4 channels, 3 in Spanish.  The rooms get many channels on cable.  Front desk said they could not have the same cable in the fitness room because "some kids" might watch a movie that was inappropriate.  Seriously?  The room is right across from the front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here because it was close to work for the week and won't be back.  A/C was off when I checked into the room, with a portable fan going at high speed.  Turned A/C on and it seemed to cool okay after a while.  After 2 days noticed a mildewy smell.  After 3 days asked to move to another room.  Pretty much the same experience in the new room.  It seems as if the A/C is not removing the moisture in the air.  The room just seems damp.Also did not like that the TV in the fitness room only got 4 channels, 3 in Spanish.  The rooms get many channels on cable.  Front desk said they could not have the same cable in the fitness room because "some kids" might watch a movie that was inappropriate.  Seriously?  The room is right across from the front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r500205806-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>500205806</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>We stayed here for one night on our way to our next destination. Staff we encountered was friendly and accommodating. Room was large and nicely decorated. Beds were comfy too. Would have given 5 stars but there was no pool and no breakfast. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for one night on our way to our next destination. Staff we encountered was friendly and accommodating. Room was large and nicely decorated. Beds were comfy too. Would have given 5 stars but there was no pool and no breakfast. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r488850428-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -258,9 +363,6 @@
     <t>Upon arrival the couple with us asked to upgrade to a king room and the girl told them they didn't have one.  After that, the phone rang at least 4 times and the other girl offered a single king room--still not available to our friends.  Staff acted like it was a pain to check us in.  Our room smelled musty like there had been a water leak--a fan was running in our room when we arrived.  No maid service--you have to carry down your towels to exchange and ask for additional shampoo.  All that being said, The room was nice and met our needs nicely.   A little friendliness and replenishment of towels would make this a perfect stay for me.MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>Management response:Responded May 31, 2017</t>
   </si>
   <si>
@@ -324,6 +426,54 @@
     <t>Found that there were additional charges to our credit card. Contacted the hotel &amp; was told by the "General Manager" that the charge was for Tupperware which the guest had signed for. The story changed after I stated that a mistake had been made &amp; no one signed for any items. Then she told me that the staff counts all items after a guest checks out and found these to be missing. Stayed in the room for less than 8 hours, never used the kitchen, but am still charged with items. Also, when I first entered the room the bedspread was on the floor &amp; the bathroom appeared to have been just recently used. Horrible Hotel!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r455104016-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>455104016</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Nice and Clean</t>
+  </si>
+  <si>
+    <t>We stayed here one night because our cruise was delayed.  We were lucky to find a room because our cruise was cancelled until the next day which left a whole ship of people scrambling to find a hotel. We got one of the last rooms at a reasonable price. The hotel was very clean and the room was very accommodating with a full size refrigerator, microwave and stove. Check in and out went smoothly.  The location was a few miles off the main highway and it's close to grocery stores and fast food restaurants. Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here one night because our cruise was delayed.  We were lucky to find a room because our cruise was cancelled until the next day which left a whole ship of people scrambling to find a hotel. We got one of the last rooms at a reasonable price. The hotel was very clean and the room was very accommodating with a full size refrigerator, microwave and stove. Check in and out went smoothly.  The location was a few miles off the main highway and it's close to grocery stores and fast food restaurants. Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r454510712-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>454510712</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>It is easy to find</t>
+  </si>
+  <si>
+    <t>Ship fogged in...had to find a room....Galveston Island motels full, full, full. Finally got room at Candlewood Suites at a $159.00. Was it price gouging, don't know, beggars cannot be choosers. Glad to have a room at the last minute. It is an okay motel. Had to take a smoking allowed room and it smelled like it. No continental breakfast. In a pinch motel was so so.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Texas City, responded to this reviewResponded February 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2017</t>
+  </si>
+  <si>
+    <t>Ship fogged in...had to find a room....Galveston Island motels full, full, full. Finally got room at Candlewood Suites at a $159.00. Was it price gouging, don't know, beggars cannot be choosers. Glad to have a room at the last minute. It is an okay motel. Had to take a smoking allowed room and it smelled like it. No continental breakfast. In a pinch motel was so so.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r432790621-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -384,6 +534,39 @@
     <t>Only stayed one night. The room was quiet but not cleaned very well. The front desk woman seemed to be one of the maids...she was nice but had a dirty unkept appearance. This hotel is in an industrial/low income residential area of town but for the price paid, i thought it was ok.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r360195808-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>360195808</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>Short stay</t>
+  </si>
+  <si>
+    <t>Only stayed three nights. Stay was quiet. Rooms were large. The desk people were very nice. Rooms were clean. Beds were comfortable. Hotel was just off a busy highway. But everything there is off of a busy highway! Only down side no breakfast. Room had small coffee pot. Room had a kitchen. It the lobby was a small store.they did have a variety although I never used it. This place is fine for a few nights.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r358304162-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>358304162</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Very helpful!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were stranded in Texas City because of a website booking screw up. We also couldn't find a replacement room because of a little league tournament. Luckily, these folks came through for us. The room was large and very comfy. It had a cook top and full sized refrigerator. If we had needed an extended stay, this would have been the place! We recommend it! </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r344238635-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -453,6 +636,48 @@
     <t>My daughters were performing at Dickens on the Strand and were spending the night at the Girl Scout property on the Island. Instead of traveling to Galveston from Houston twice in a row my husband and I decided to get a hotel room instead. I started pricing hotels on the Island and they were quite pricey. I then decided to look a bit further afield and the Texas City Candlewood came up with a very reasonable price. We've used Candlewoods when we stay as a family for several days for tournaments but I'd never stayed in one just with my husband for a one night stay.This particular hotel was approximately 25 minutes from the Island and very easy to reach. The hotel was very clean and the front staff were very, very thorough and helpful. The room was spacious and clean and even though it was just a place to spend the night my husband and I were very happy with the accommodations. We would definitely stay there again should the need arise.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r322699882-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>322699882</t>
+  </si>
+  <si>
+    <t>10/28/2015</t>
+  </si>
+  <si>
+    <t>like bugs</t>
+  </si>
+  <si>
+    <t>If you like you like stale cigarette smoke,  dirty rooms and bugs in your bed this is the hotel for you.  Rude front desk clerk.  The Candlewood in League City ( Very close ) is much nicer.   Try there instead.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Texas City, responded to this reviewResponded November 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2015</t>
+  </si>
+  <si>
+    <t>If you like you like stale cigarette smoke,  dirty rooms and bugs in your bed this is the hotel for you.  Rude front desk clerk.  The Candlewood in League City ( Very close ) is much nicer.   Try there instead.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r318007653-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>318007653</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Wasn't perfect but I would stay again</t>
+  </si>
+  <si>
+    <t>The hotel is what I would expect from a Candlewood. The parking lot was well lit and the location was great. There is a Starbucks and grocery store nearby. The only real complaint I have is the smell of the room. The room was very musty and had a moldy wet smell. It wasn't unbearable but it was obvious.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r305111356-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -513,6 +738,45 @@
     <t>My wife, 2 yr old son and I stayed for 5 days. The staff was friendly. The suite was clean, and my son appreciated a normal cable subscription and not some basic hotel cable. The only cons are no continental breakfast, and no pool. It was within 20 minutes from Kemah, Galveston and everywhere else we wanted to go.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r287329629-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>287329629</t>
+  </si>
+  <si>
+    <t>Speechless!!!</t>
+  </si>
+  <si>
+    <t>Called and requested a king room before we arrived and told no problem. Upon arrival we payed for requested room, entered and found it was a handicapped queen. Called down and informed desk clerk, he said he would discount my room 10 dollars a nite. When my husband went downstairs to get his phone. He expressed his displeasure, went out get his phone. They then locked him out of the hotel and the night manager calls my room and word for word informs me "WE ARE ASKING YOU TO LEAVE AS YOU DO NOT LIKE OUR ROOMS"  Oh and for pet owners they are pet friendly but charge a $75 nonrefundable fee you can go on down the road and pay much much less for your 4 legged friend.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Texas City, responded to this reviewResponded July 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2015</t>
+  </si>
+  <si>
+    <t>Called and requested a king room before we arrived and told no problem. Upon arrival we payed for requested room, entered and found it was a handicapped queen. Called down and informed desk clerk, he said he would discount my room 10 dollars a nite. When my husband went downstairs to get his phone. He expressed his displeasure, went out get his phone. They then locked him out of the hotel and the night manager calls my room and word for word informs me "WE ARE ASKING YOU TO LEAVE AS YOU DO NOT LIKE OUR ROOMS"  Oh and for pet owners they are pet friendly but charge a $75 nonrefundable fee you can go on down the road and pay much much less for your 4 legged friend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r273168713-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>273168713</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Candlewood Texas City, TX</t>
+  </si>
+  <si>
+    <t>The hotel and rooms are very clean.  The base rooms have kitchenette and full size refrigerator.  The staff is very friendly and accommodating.  The fitness center has free weights as well as treadmill and elliptical. There are over 15 premium movie channels.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r264243031-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -579,6 +843,63 @@
     <t>I went online to reserve Thanksgiving Night (Thursday Nov. 27) about 8:30 Pm.  Got two rooms for a good price of $80.00 each for a 2 night stay ($361. 00 + Tax). Later that night I got sick and by morning knew that we could not travel.  Called the hotel early on November 28 and they did not have a reservation taken at the site but through  Expedia.com.  Called Expedia and learned reservation had been made through the online service  Expedia dropped their cancellation charge fee after I told my reason for not keeping the appointment. They call the Hotel to explain. BUT the hotel charged me one night for each room because I did not cancel 48 hours prior to arrival of 3:00 PM. on Friday  My response was that 48 hours had not passed between reservations made and arrival time and I was too sick to travel.  Candlewood Hotel would not budge either with me or the representative from Expedia.  Their excuse is not fair!  And, I am pretty angry with Candlewood.  Glad I did not go because if their accommodations, service and city is a poor as the excuse for taking $180.00 of my money I would be even madder.  Glad I paid with a credit card that have good Resolution to unsatisfied customer.  I will never stay at Candlewood.  but will write a letter and call my credit card company.  I did not go on the...I went online to reserve Thanksgiving Night (Thursday Nov. 27) about 8:30 Pm.  Got two rooms for a good price of $80.00 each for a 2 night stay ($361. 00 + Tax). Later that night I got sick and by morning knew that we could not travel.  Called the hotel early on November 28 and they did not have a reservation taken at the site but through  Expedia.com.  Called Expedia and learned reservation had been made through the online service  Expedia dropped their cancellation charge fee after I told my reason for not keeping the appointment. They call the Hotel to explain. BUT the hotel charged me one night for each room because I did not cancel 48 hours prior to arrival of 3:00 PM. on Friday  My response was that 48 hours had not passed between reservations made and arrival time and I was too sick to travel.  Candlewood Hotel would not budge either with me or the representative from Expedia.  Their excuse is not fair!  And, I am pretty angry with Candlewood.  Glad I did not go because if their accommodations, service and city is a poor as the excuse for taking $180.00 of my money I would be even madder.  Glad I paid with a credit card that have good Resolution to unsatisfied customer.  I will never stay at Candlewood.  but will write a letter and call my credit card company.  I did not go on the planed trip.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r230286452-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>230286452</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>Location perfect</t>
+  </si>
+  <si>
+    <t>My stay at hotel was ok and location was perfect. The only things missing was a swimming pool, there was also no free continental breakfast like most hotel chains of this caliber, and the food products available on property was very over priced.  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Texas City, responded to this reviewResponded October 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2014</t>
+  </si>
+  <si>
+    <t>My stay at hotel was ok and location was perfect. The only things missing was a swimming pool, there was also no free continental breakfast like most hotel chains of this caliber, and the food products available on property was very over priced.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r223325124-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>223325124</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>Wish I'd stayed elsewhere</t>
+  </si>
+  <si>
+    <t>I planned a last minute trip to Galveston with my boyfriend for a last trip before school started. We were planning on meeting some family there so I went ahead and made reservations for us both. My boyfriend was paying for our room and my family was paying for theirs, but I made the reservation with my debit card. I noted on the reservation that the room was not for me nor would it be paid for by me so please do not authorize my card. So we drive 12 hours and when we arrive around 4 pm, only an hour after check in even begins, we are told that my card wont authorize and so they've cancelled our reservation and that they are sold out. So I check my bank account and $150 is missing and I know right away what has happened. They authorized my card for the room I specifically said not to (last name starts with G) so when they got to our room (last name starts with Y) there wasnt enough left because I hadnt budgeted hotel costs for obvious reasons and the card declined. On top of that when I made my reservations I chose no deposit required rates which were slightly higher than deposit required specifically to avoid problems like these. I called my family and luckily they had other family nearby who they could stay with and we were able to check...I planned a last minute trip to Galveston with my boyfriend for a last trip before school started. We were planning on meeting some family there so I went ahead and made reservations for us both. My boyfriend was paying for our room and my family was paying for theirs, but I made the reservation with my debit card. I noted on the reservation that the room was not for me nor would it be paid for by me so please do not authorize my card. So we drive 12 hours and when we arrive around 4 pm, only an hour after check in even begins, we are told that my card wont authorize and so they've cancelled our reservation and that they are sold out. So I check my bank account and $150 is missing and I know right away what has happened. They authorized my card for the room I specifically said not to (last name starts with G) so when they got to our room (last name starts with Y) there wasnt enough left because I hadnt budgeted hotel costs for obvious reasons and the card declined. On top of that when I made my reservations I chose no deposit required rates which were slightly higher than deposit required specifically to avoid problems like these. I called my family and luckily they had other family nearby who they could stay with and we were able to check in to the room I had reserved for them. The woman still kept trying to charge my card for another night, even after I told her it would not authorize and that I was not paying for the room, my bf was. I had reserved a King for ourselves and 2 doubles for my family so initially when we checked in we had the 2 doubles and were paying the 2 double rate but just as we were about to go get our things a family approached the desk saying they needed 2 beds and had only gotten one. We were able to switch with them but the woman at the desk would not lower our rate to the single bed rate claiming she could not (I've working hotels for 5 years and I know for a fact she could have, especially considering she cancelled an out of state reservation and had already inconvenienced us. The only time you aren't supposed to change rates is if its a third party reservation, which it was not, it was direct) We had just gotten up to our room when she called and offered to upgrade us from a queen to a king claiming someone had wanted a queen not a king. I think what it honestly was is she was not sold out as she claimed to be and felt bad for being such a douche because no one downgrades rooms, especially if the hotel will not adjust the rate. After the check in debacle everything was okay but considering we ended up paying $133 a night for a king bed in a hotel with no pool or breakfast, I would have much rather just stayed in GalvestonThe rooms are comfortable and clean. They are a bit on the smaller side but have a kitchenette area with a full size fridge, dishwasher, and sink. Our TV did not work.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Texas City, responded to this reviewResponded September 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2014</t>
+  </si>
+  <si>
+    <t>I planned a last minute trip to Galveston with my boyfriend for a last trip before school started. We were planning on meeting some family there so I went ahead and made reservations for us both. My boyfriend was paying for our room and my family was paying for theirs, but I made the reservation with my debit card. I noted on the reservation that the room was not for me nor would it be paid for by me so please do not authorize my card. So we drive 12 hours and when we arrive around 4 pm, only an hour after check in even begins, we are told that my card wont authorize and so they've cancelled our reservation and that they are sold out. So I check my bank account and $150 is missing and I know right away what has happened. They authorized my card for the room I specifically said not to (last name starts with G) so when they got to our room (last name starts with Y) there wasnt enough left because I hadnt budgeted hotel costs for obvious reasons and the card declined. On top of that when I made my reservations I chose no deposit required rates which were slightly higher than deposit required specifically to avoid problems like these. I called my family and luckily they had other family nearby who they could stay with and we were able to check...I planned a last minute trip to Galveston with my boyfriend for a last trip before school started. We were planning on meeting some family there so I went ahead and made reservations for us both. My boyfriend was paying for our room and my family was paying for theirs, but I made the reservation with my debit card. I noted on the reservation that the room was not for me nor would it be paid for by me so please do not authorize my card. So we drive 12 hours and when we arrive around 4 pm, only an hour after check in even begins, we are told that my card wont authorize and so they've cancelled our reservation and that they are sold out. So I check my bank account and $150 is missing and I know right away what has happened. They authorized my card for the room I specifically said not to (last name starts with G) so when they got to our room (last name starts with Y) there wasnt enough left because I hadnt budgeted hotel costs for obvious reasons and the card declined. On top of that when I made my reservations I chose no deposit required rates which were slightly higher than deposit required specifically to avoid problems like these. I called my family and luckily they had other family nearby who they could stay with and we were able to check in to the room I had reserved for them. The woman still kept trying to charge my card for another night, even after I told her it would not authorize and that I was not paying for the room, my bf was. I had reserved a King for ourselves and 2 doubles for my family so initially when we checked in we had the 2 doubles and were paying the 2 double rate but just as we were about to go get our things a family approached the desk saying they needed 2 beds and had only gotten one. We were able to switch with them but the woman at the desk would not lower our rate to the single bed rate claiming she could not (I've working hotels for 5 years and I know for a fact she could have, especially considering she cancelled an out of state reservation and had already inconvenienced us. The only time you aren't supposed to change rates is if its a third party reservation, which it was not, it was direct) We had just gotten up to our room when she called and offered to upgrade us from a queen to a king claiming someone had wanted a queen not a king. I think what it honestly was is she was not sold out as she claimed to be and felt bad for being such a douche because no one downgrades rooms, especially if the hotel will not adjust the rate. After the check in debacle everything was okay but considering we ended up paying $133 a night for a king bed in a hotel with no pool or breakfast, I would have much rather just stayed in GalvestonThe rooms are comfortable and clean. They are a bit on the smaller side but have a kitchenette area with a full size fridge, dishwasher, and sink. Our TV did not work.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r218720020-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -636,6 +957,45 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r190880890-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>190880890</t>
+  </si>
+  <si>
+    <t>01/14/2014</t>
+  </si>
+  <si>
+    <t>..Okay</t>
+  </si>
+  <si>
+    <t>This hotel is very clean the employees helpful and attentive. I stayed here because it was recommended to me by a person. The rate is 90.39 for 1 night. That's high, especially if you're here with your family for vacation. This town is an oil refinery town, so you probablu won't be vacationing here. It's 15-20 minutes from galveston, good! If you have the money to spend it's a good hotel. Oh yes the front desk guy barged into my roon while I was sleeping in bed. I went down stairs for explanation and all I got was I thought nobody was stayong tonigh? I was due to check out three nights later! Put your locks in.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>This hotel is very clean the employees helpful and attentive. I stayed here because it was recommended to me by a person. The rate is 90.39 for 1 night. That's high, especially if you're here with your family for vacation. This town is an oil refinery town, so you probablu won't be vacationing here. It's 15-20 minutes from galveston, good! If you have the money to spend it's a good hotel. Oh yes the front desk guy barged into my roon while I was sleeping in bed. I went down stairs for explanation and all I got was I thought nobody was stayong tonigh? I was due to check out three nights later! Put your locks in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r186686998-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>186686998</t>
+  </si>
+  <si>
+    <t>12/03/2013</t>
+  </si>
+  <si>
+    <t>Perfect road warrior hotel</t>
+  </si>
+  <si>
+    <t>One of the best hotels I have stayed at while traveling on business. Friendliest staff I have encountered, clean rooms, and a large laundry facility. For a business traveller who is often on the road for weeks at a time, It was nice to find a hotel with a kitchenette and a full size fridge. Great rates for extended stays and easy access to the highway for trips to Galveston or Houston.They go out of their way for the business traveller, and it is truly appreciated.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r186096565-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -669,9 +1029,6 @@
     <t xml:space="preserve">I stayed three days, there was a Coffee pot in the room &amp; they had regular &amp; decaf Coffee, well after I found out there was no daily cleaning service I ask for two more packs of Coffee. My answer was No but for $ 00.50 each I could add them to my room rate or get dressed &amp; come down to get a cup free. I got cold so I turned the Heater on &amp; it Stunk up the room. I had to turn on the AC on high then open the door to get the smell out. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r178564136-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -693,6 +1050,51 @@
     <t>This is one of the BEST properties I have ever stayed at. The staff there is so down to earth and makes you feel right at home. They never skipped a beat speaking to me with direct contact every time I walked thru the Lobby. Front Desk is so amazing. They are all so sweet and nice; I just cannot say enough about them, they ALL deserve 10stars. I was reading some bad comment about the place before even going to the property, I am SO glad I did not let that effect my decision on going. Yeah, so they ask for an incidental at check in... So what! Have you ever heard of one ruins it for all. Not to mention they have everything you need as far as in room amenities, so if something is damaged or missing then who should pay? Not the Hotel own up and take responsabilities (didn't you learn that in like 2nd grade). I just think some people get upset when everything does not go their way, don't go on a vacation on a budget; that's all I'm saying. But like I said one of the BEST Hotels I have ever stayed in VERY VERY CLEAN and Front Desk is VERY VERY sweet. Thanks for making me feel at home!See y'all soon!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r175729362-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>175729362</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>A Good Long Weekend</t>
+  </si>
+  <si>
+    <t>This hotel was a great value for the accommodations--although the room we were in was oddly designed from a function standpoint. No matter - it was reasonable and we would stay here again if ever in the area for a spell. Staff was very professional and courteous.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r174761108-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>174761108</t>
+  </si>
+  <si>
+    <t>08/29/2013</t>
+  </si>
+  <si>
+    <t>Ok for the price</t>
+  </si>
+  <si>
+    <t>We booked the room 3 weeks in advance. When we went there we got a room that had a very story pet urine smell. My son is allergic to pets. When we asked them for another room they said they don't any, but will put a fan for 1/2 hour which will remove the smell. Finally I was able to get a room without a smell. All the rooms in this place has been used by guest with pets. I thought they would have few rooms that they don't allow pets like the other place. Kitchen is very clean and has a stove and fridge.  Bathrooms is clean too.  Following day they have asked to move to another room and said they need that room. We have to move to another one again. Not a comfortable stay for us with these experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Texas City, responded to this reviewResponded September 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2013</t>
+  </si>
+  <si>
+    <t>We booked the room 3 weeks in advance. When we went there we got a room that had a very story pet urine smell. My son is allergic to pets. When we asked them for another room they said they don't any, but will put a fan for 1/2 hour which will remove the smell. Finally I was able to get a room without a smell. All the rooms in this place has been used by guest with pets. I thought they would have few rooms that they don't allow pets like the other place. Kitchen is very clean and has a stove and fridge.  Bathrooms is clean too.  Following day they have asked to move to another room and said they need that room. We have to move to another one again. Not a comfortable stay for us with these experience.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r173271799-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -759,6 +1161,54 @@
     <t>My cousins &amp; I stayed here for a mini family reunion.  The front desk was very friendly &amp; helpful with directions &amp; restaurants.  The rooms were clean, spacious &amp; kitchen was set up for use.  The rooms even included a small dining table &amp; a recliner.  Wifi was good.  For the price, we felt we received more than what we paid for.  For smokers, they still offer smoking rooms.  Would def stay here again if in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r158684507-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>158684507</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>So far, so good.</t>
+  </si>
+  <si>
+    <t>We're staying here for a few weeks but I wanted to go ahead and write a review.  I may do another one at the end of our stay.  
+First.  The workers at the front desk are EXTREMELY nice and helpful.  They seem genuinely concerned with making our stay as comfortable as possible.  The first man was sure to inform us about what the hotel offers (more on this).
+Second.  The room was spectacular!  Spotless, seemingly new furnishings.  Our room has a kitchen comparable with a small apartment. Granite counters, full-sized fridge, microwave, two-burner ceramic range, dishwasher (what?), DISHES (no-way!) you won't find those little plastic cups wrapped in plastic like most hotels.  We also had pots and pans, silverware, everything but food.  Clean cabinets, large table/bar, comfy chairs.  Two flat-screen tvs (one in the bedroom, one in the living room).  DVD player, they'll let you borrow dvds and cds for free as well. (I haven't checked the selection)
+Free WI FI.  Seems relatively fast and reliable.  I hooked up my ethernet cable and GEEZ!  fast.  
+Haven't used the fitness area but it looked like they have a lot of machines.  Don't expect vending machines, rather a small convenient store off the lobby.  hot pockets, ice cream etc, plus the normal snack items for decent prices.  
+There's a gas grill outside free for guest use, they'll even give you utensils to use.  
+Nice towels and linens, whoever chooses these obviously has...We're staying here for a few weeks but I wanted to go ahead and write a review.  I may do another one at the end of our stay.  First.  The workers at the front desk are EXTREMELY nice and helpful.  They seem genuinely concerned with making our stay as comfortable as possible.  The first man was sure to inform us about what the hotel offers (more on this).Second.  The room was spectacular!  Spotless, seemingly new furnishings.  Our room has a kitchen comparable with a small apartment. Granite counters, full-sized fridge, microwave, two-burner ceramic range, dishwasher (what?), DISHES (no-way!) you won't find those little plastic cups wrapped in plastic like most hotels.  We also had pots and pans, silverware, everything but food.  Clean cabinets, large table/bar, comfy chairs.  Two flat-screen tvs (one in the bedroom, one in the living room).  DVD player, they'll let you borrow dvds and cds for free as well. (I haven't checked the selection)Free WI FI.  Seems relatively fast and reliable.  I hooked up my ethernet cable and GEEZ!  fast.  Haven't used the fitness area but it looked like they have a lot of machines.  Don't expect vending machines, rather a small convenient store off the lobby.  hot pockets, ice cream etc, plus the normal snack items for decent prices.  There's a gas grill outside free for guest use, they'll even give you utensils to use.  Nice towels and linens, whoever chooses these obviously has an eye for quality.  Not the scratchy, over-bleached stuff you find at other places.-The only thing I don't like so far is a non-refundable and pricey pet fee.  I think it should be more of a deposit. If your dog doesn't mess anything up, it was like they were never there.  Why charge such an outrageous fee?  I'll try to do another review at the end of our stay.  I just wanted to go ahead and give Candlewood credit.  The pet fee is the only reason I couldn't give an excellent rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>We're staying here for a few weeks but I wanted to go ahead and write a review.  I may do another one at the end of our stay.  
+First.  The workers at the front desk are EXTREMELY nice and helpful.  They seem genuinely concerned with making our stay as comfortable as possible.  The first man was sure to inform us about what the hotel offers (more on this).
+Second.  The room was spectacular!  Spotless, seemingly new furnishings.  Our room has a kitchen comparable with a small apartment. Granite counters, full-sized fridge, microwave, two-burner ceramic range, dishwasher (what?), DISHES (no-way!) you won't find those little plastic cups wrapped in plastic like most hotels.  We also had pots and pans, silverware, everything but food.  Clean cabinets, large table/bar, comfy chairs.  Two flat-screen tvs (one in the bedroom, one in the living room).  DVD player, they'll let you borrow dvds and cds for free as well. (I haven't checked the selection)
+Free WI FI.  Seems relatively fast and reliable.  I hooked up my ethernet cable and GEEZ!  fast.  
+Haven't used the fitness area but it looked like they have a lot of machines.  Don't expect vending machines, rather a small convenient store off the lobby.  hot pockets, ice cream etc, plus the normal snack items for decent prices.  
+There's a gas grill outside free for guest use, they'll even give you utensils to use.  
+Nice towels and linens, whoever chooses these obviously has...We're staying here for a few weeks but I wanted to go ahead and write a review.  I may do another one at the end of our stay.  First.  The workers at the front desk are EXTREMELY nice and helpful.  They seem genuinely concerned with making our stay as comfortable as possible.  The first man was sure to inform us about what the hotel offers (more on this).Second.  The room was spectacular!  Spotless, seemingly new furnishings.  Our room has a kitchen comparable with a small apartment. Granite counters, full-sized fridge, microwave, two-burner ceramic range, dishwasher (what?), DISHES (no-way!) you won't find those little plastic cups wrapped in plastic like most hotels.  We also had pots and pans, silverware, everything but food.  Clean cabinets, large table/bar, comfy chairs.  Two flat-screen tvs (one in the bedroom, one in the living room).  DVD player, they'll let you borrow dvds and cds for free as well. (I haven't checked the selection)Free WI FI.  Seems relatively fast and reliable.  I hooked up my ethernet cable and GEEZ!  fast.  Haven't used the fitness area but it looked like they have a lot of machines.  Don't expect vending machines, rather a small convenient store off the lobby.  hot pockets, ice cream etc, plus the normal snack items for decent prices.  There's a gas grill outside free for guest use, they'll even give you utensils to use.  Nice towels and linens, whoever chooses these obviously has an eye for quality.  Not the scratchy, over-bleached stuff you find at other places.-The only thing I don't like so far is a non-refundable and pricey pet fee.  I think it should be more of a deposit. If your dog doesn't mess anything up, it was like they were never there.  Why charge such an outrageous fee?  I'll try to do another review at the end of our stay.  I just wanted to go ahead and give Candlewood credit.  The pet fee is the only reason I couldn't give an excellent rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r156885018-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>156885018</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>It was ok, hated the $50 dollar charge</t>
+  </si>
+  <si>
+    <t>The hotel is in a nice spot. Far from the city, but close enough to Kemah and Galveston. It is about 8-12 miles from both. Remember this hotel does NOT serve breakfast, but has a nice stove top and microwave in the room you can use to cook your own food. There is a Kroger right up the road if needed. I did not like the fact that when I checked in, they needed a $50 dollar "incidental" charge. But, they gave it right back at the end of the stay. Overall, good for the price and two nights. The people at the desk were REALLY nice!</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r155796853-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -774,9 +1224,6 @@
     <t>Great value compared to nearby properties. The property is somewhat hard to find if you are not familiar with the area. We called the front desk from nearby, and Carolyn directed us straight to the hotel!  Thanks!  Do not rely on GPS (we had GPS and two IPhones with maps and google maps). The hotel is located on the north-bound feeder street (Hwy 146), just north of 1764(Palmer Rd.).  We had a really nice, 2 nite stay with our mini Schnauzer. Very nice Queen studio suite on the 3d floor with very comfortable bed. We didn't use the cupboard much but we were very thankful for the fresh, complimentary coffee that they kept brewed in the cupboard all day long (even very early in the morning)!  We were thankful for the kitchen with all the utensils for cooking, the fridge, microwave, stovetop and everything we needed. The staff and management were very friendly and helpful!MoreShow less</t>
   </si>
   <si>
-    <t>March 2013</t>
-  </si>
-  <si>
     <t>Great value compared to nearby properties. The property is somewhat hard to find if you are not familiar with the area. We called the front desk from nearby, and Carolyn directed us straight to the hotel!  Thanks!  Do not rely on GPS (we had GPS and two IPhones with maps and google maps). The hotel is located on the north-bound feeder street (Hwy 146), just north of 1764(Palmer Rd.).  We had a really nice, 2 nite stay with our mini Schnauzer. Very nice Queen studio suite on the 3d floor with very comfortable bed. We didn't use the cupboard much but we were very thankful for the fresh, complimentary coffee that they kept brewed in the cupboard all day long (even very early in the morning)!  We were thankful for the kitchen with all the utensils for cooking, the fridge, microwave, stovetop and everything we needed. The staff and management were very friendly and helpful!More</t>
   </si>
   <si>
@@ -825,6 +1272,59 @@
     <t>First night stay was the most uncomfortable I've experienced in a hotel stay.  Although our room was supposed to be non-smoking, the smell proved otherwise.  Blame this to the room being on the 1st floor next next to the outside smoking area.  Unfortunately, the hotel was booked solid and no other rooms were available.  Fortunately, Ik was very accommodating and relocated us the next day to a 3rd floor room. Overall, the rest of the staff was not the most organized or accommodating. They lacked an adequate supply of linens and the night shift had to wait on the morning shift to accomplish simple requests. Apart from this, the hotel was  reasonably priced, had clean rooms, and was conveniently located minutes away from the city center.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r151531730-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>151531730</t>
+  </si>
+  <si>
+    <t>02/06/2013</t>
+  </si>
+  <si>
+    <t>DO NOT GO THERE</t>
+  </si>
+  <si>
+    <t>I am a travel nurse so I am on the go alot.  When I checked into this hotel they wanted to charge my credit card $100 for incidentals.  I have NEVER been charged for incidentals.  Other hotels just keep your card number on file and do not charge your card.  When I asked what the incidentals were I was told that if I were to take something from the food pantry.  I pointed out that they charge $5 for a pint of ice cream and I could drive across the street to Kroger and get it for less than $2.  He then stated that is was for long distance calls.  I pointed out to him that I had a cell phone that worked nation wide.  He then stated that it would be for anything of the hotels property that I took.  I was blown away by this comment.  I have stayed in Candlewood Suites before and have NEVER experienced such treatment.  I checked in only because I did not have time to find another hotel because I was working 12 hour shifts.  When I made a complaint to the corporate office about the way that I was talked to, I was kicked out of the hotel!!!!  The owner stated that I should be grateful to be able to stay there. Grateful? I am paying to stay there, they are not giving me anything.  The owner also wanted free access to...I am a travel nurse so I am on the go alot.  When I checked into this hotel they wanted to charge my credit card $100 for incidentals.  I have NEVER been charged for incidentals.  Other hotels just keep your card number on file and do not charge your card.  When I asked what the incidentals were I was told that if I were to take something from the food pantry.  I pointed out that they charge $5 for a pint of ice cream and I could drive across the street to Kroger and get it for less than $2.  He then stated that is was for long distance calls.  I pointed out to him that I had a cell phone that worked nation wide.  He then stated that it would be for anything of the hotels property that I took.  I was blown away by this comment.  I have stayed in Candlewood Suites before and have NEVER experienced such treatment.  I checked in only because I did not have time to find another hotel because I was working 12 hour shifts.  When I made a complaint to the corporate office about the way that I was talked to, I was kicked out of the hotel!!!!  The owner stated that I should be grateful to be able to stay there. Grateful? I am paying to stay there, they are not giving me anything.  The owner also wanted free access to my room.  He wanted to come in when ever he pleased.  He even told my company that he would go in at 12 am if he wanted to with out any warning and that he didn't even have to knock on the door that he could just walk in. It was pointed out that that was an invasion of privacy and he stated that it was his hotel and that he could do anything that he wanted to.  I am a private person and do not like having people in my room alot.  I clean my room every day, not every week.  I have pets and you cannot tell that there are in there unless they bark.  Every hotel that I have stayed in for any extended length have loved having me because I do not cause extra work and am very friendly.  I am dissappointed that these people are allowed to own a franchise of Candlewood due to the fact that they are giving it a bad name.  Several of the other guests experienced the same issues but I was the only one to complain to corporate.  When I talked to corporate this morning I was told that this hotel had the right to refuse service to anyone.  Refuse service because I complained that the staff implied that I was a thief?  Really?  I thought that was what Customer Relations was for.  I am so glad that I did an inventory of all the items in the room and of the damages that I found and took pictures as well.  I sent all of this to my company to be kept on file in case of any issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Texas City, responded to this reviewResponded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2013</t>
+  </si>
+  <si>
+    <t>I am a travel nurse so I am on the go alot.  When I checked into this hotel they wanted to charge my credit card $100 for incidentals.  I have NEVER been charged for incidentals.  Other hotels just keep your card number on file and do not charge your card.  When I asked what the incidentals were I was told that if I were to take something from the food pantry.  I pointed out that they charge $5 for a pint of ice cream and I could drive across the street to Kroger and get it for less than $2.  He then stated that is was for long distance calls.  I pointed out to him that I had a cell phone that worked nation wide.  He then stated that it would be for anything of the hotels property that I took.  I was blown away by this comment.  I have stayed in Candlewood Suites before and have NEVER experienced such treatment.  I checked in only because I did not have time to find another hotel because I was working 12 hour shifts.  When I made a complaint to the corporate office about the way that I was talked to, I was kicked out of the hotel!!!!  The owner stated that I should be grateful to be able to stay there. Grateful? I am paying to stay there, they are not giving me anything.  The owner also wanted free access to...I am a travel nurse so I am on the go alot.  When I checked into this hotel they wanted to charge my credit card $100 for incidentals.  I have NEVER been charged for incidentals.  Other hotels just keep your card number on file and do not charge your card.  When I asked what the incidentals were I was told that if I were to take something from the food pantry.  I pointed out that they charge $5 for a pint of ice cream and I could drive across the street to Kroger and get it for less than $2.  He then stated that is was for long distance calls.  I pointed out to him that I had a cell phone that worked nation wide.  He then stated that it would be for anything of the hotels property that I took.  I was blown away by this comment.  I have stayed in Candlewood Suites before and have NEVER experienced such treatment.  I checked in only because I did not have time to find another hotel because I was working 12 hour shifts.  When I made a complaint to the corporate office about the way that I was talked to, I was kicked out of the hotel!!!!  The owner stated that I should be grateful to be able to stay there. Grateful? I am paying to stay there, they are not giving me anything.  The owner also wanted free access to my room.  He wanted to come in when ever he pleased.  He even told my company that he would go in at 12 am if he wanted to with out any warning and that he didn't even have to knock on the door that he could just walk in. It was pointed out that that was an invasion of privacy and he stated that it was his hotel and that he could do anything that he wanted to.  I am a private person and do not like having people in my room alot.  I clean my room every day, not every week.  I have pets and you cannot tell that there are in there unless they bark.  Every hotel that I have stayed in for any extended length have loved having me because I do not cause extra work and am very friendly.  I am dissappointed that these people are allowed to own a franchise of Candlewood due to the fact that they are giving it a bad name.  Several of the other guests experienced the same issues but I was the only one to complain to corporate.  When I talked to corporate this morning I was told that this hotel had the right to refuse service to anyone.  Refuse service because I complained that the staff implied that I was a thief?  Really?  I thought that was what Customer Relations was for.  I am so glad that I did an inventory of all the items in the room and of the damages that I found and took pictures as well.  I sent all of this to my company to be kept on file in case of any issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r148552750-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>148552750</t>
+  </si>
+  <si>
+    <t>01/01/2013</t>
+  </si>
+  <si>
+    <t>Good accomodations, reasonable price, near Galveston or Kemah</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for two nights in a second floor room back-side, while visiting nearby family for the Christmas holidays.It was a good experience.
+It's located on a highway just north of Texas City going toward Kemah-Seabrook. It stands alone in an open area adjacent to much vacant land and a few scattered houses. Front-side view is highway, back-side view is pasture and a few houses. Seemed safe enough area, but there's no sidewalks or any place of business (restaurants, etc) to walk to close by, although there are restaurants and fast food within about a one mile drive. 
+Parking area is clean and well-lighted, with adequate parking spaces. The area seemed to be a safe area. Lobby is clean and attractive. Front desk staff were courteous, professional, yet not warm... kinda cold. After the check-in was complete, the desk person made a practiced long speech about what to expect regarding the facilities. I'll shorten it here to the important crux of it... "No breakfast; no housekeeping except weekly". We knew that anyway, since it's standard for Candlewood Suites. You can exchange your towels and bed linen for clean any time by taking them down to the office.  
+One elevator for three floors, clean and adequate speed. Hallways are clean, maintained. The 82-room building is non-smoking. LOVE THAT!
+The room was a slightly larger than usual queen studio suite with full kitchen, a small but adequate work/dining...My wife and I stayed here for two nights in a second floor room back-side, while visiting nearby family for the Christmas holidays.It was a good experience.It's located on a highway just north of Texas City going toward Kemah-Seabrook. It stands alone in an open area adjacent to much vacant land and a few scattered houses. Front-side view is highway, back-side view is pasture and a few houses. Seemed safe enough area, but there's no sidewalks or any place of business (restaurants, etc) to walk to close by, although there are restaurants and fast food within about a one mile drive. Parking area is clean and well-lighted, with adequate parking spaces. The area seemed to be a safe area. Lobby is clean and attractive. Front desk staff were courteous, professional, yet not warm... kinda cold. After the check-in was complete, the desk person made a practiced long speech about what to expect regarding the facilities. I'll shorten it here to the important crux of it... "No breakfast; no housekeeping except weekly". We knew that anyway, since it's standard for Candlewood Suites. You can exchange your towels and bed linen for clean any time by taking them down to the office.  One elevator for three floors, clean and adequate speed. Hallways are clean, maintained. The 82-room building is non-smoking. LOVE THAT!The room was a slightly larger than usual queen studio suite with full kitchen, a small but adequate work/dining area, lounge and dining chairs. Decor somewhat plain, but stylish and attractive, and not worn or dated. Queen bed with comfortable mattress, washable comforter. Carpet was clean. Adequate lighting. Didn't hear much noise or activity from outside the room, but being Christmas the hotel was largely vacant. Large screen HDTV, but no HD service.The bathroom was roomy and clean, no mold in the shower, fluffy towels, the vanity surface area was smallish for two person's travel junk.. Ceiling exhaust fan. Everything worked.The marble countertop kitchen was clean and well stocked with cookware and dishware, a refrigerator, electric stove top, microwave, sink/disposal, and coffeemaker. Everything worked.The hotel has an onsite free laundry (you buy soap), a workout facility, and a pool which we didn't visit. We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for two nights in a second floor room back-side, while visiting nearby family for the Christmas holidays.It was a good experience.
+It's located on a highway just north of Texas City going toward Kemah-Seabrook. It stands alone in an open area adjacent to much vacant land and a few scattered houses. Front-side view is highway, back-side view is pasture and a few houses. Seemed safe enough area, but there's no sidewalks or any place of business (restaurants, etc) to walk to close by, although there are restaurants and fast food within about a one mile drive. 
+Parking area is clean and well-lighted, with adequate parking spaces. The area seemed to be a safe area. Lobby is clean and attractive. Front desk staff were courteous, professional, yet not warm... kinda cold. After the check-in was complete, the desk person made a practiced long speech about what to expect regarding the facilities. I'll shorten it here to the important crux of it... "No breakfast; no housekeeping except weekly". We knew that anyway, since it's standard for Candlewood Suites. You can exchange your towels and bed linen for clean any time by taking them down to the office.  
+One elevator for three floors, clean and adequate speed. Hallways are clean, maintained. The 82-room building is non-smoking. LOVE THAT!
+The room was a slightly larger than usual queen studio suite with full kitchen, a small but adequate work/dining...My wife and I stayed here for two nights in a second floor room back-side, while visiting nearby family for the Christmas holidays.It was a good experience.It's located on a highway just north of Texas City going toward Kemah-Seabrook. It stands alone in an open area adjacent to much vacant land and a few scattered houses. Front-side view is highway, back-side view is pasture and a few houses. Seemed safe enough area, but there's no sidewalks or any place of business (restaurants, etc) to walk to close by, although there are restaurants and fast food within about a one mile drive. Parking area is clean and well-lighted, with adequate parking spaces. The area seemed to be a safe area. Lobby is clean and attractive. Front desk staff were courteous, professional, yet not warm... kinda cold. After the check-in was complete, the desk person made a practiced long speech about what to expect regarding the facilities. I'll shorten it here to the important crux of it... "No breakfast; no housekeeping except weekly". We knew that anyway, since it's standard for Candlewood Suites. You can exchange your towels and bed linen for clean any time by taking them down to the office.  One elevator for three floors, clean and adequate speed. Hallways are clean, maintained. The 82-room building is non-smoking. LOVE THAT!The room was a slightly larger than usual queen studio suite with full kitchen, a small but adequate work/dining area, lounge and dining chairs. Decor somewhat plain, but stylish and attractive, and not worn or dated. Queen bed with comfortable mattress, washable comforter. Carpet was clean. Adequate lighting. Didn't hear much noise or activity from outside the room, but being Christmas the hotel was largely vacant. Large screen HDTV, but no HD service.The bathroom was roomy and clean, no mold in the shower, fluffy towels, the vanity surface area was smallish for two person's travel junk.. Ceiling exhaust fan. Everything worked.The marble countertop kitchen was clean and well stocked with cookware and dishware, a refrigerator, electric stove top, microwave, sink/disposal, and coffeemaker. Everything worked.The hotel has an onsite free laundry (you buy soap), a workout facility, and a pool which we didn't visit. We would stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r147193142-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -838,9 +1338,6 @@
   </si>
   <si>
     <t>My wife and I stayed here the night before leaving on a cruise out of Galveston.  We selected this hotel because it was cheaper than those in Galveston, and is only about 15 miles from the cruise terminal.  The room was large, clean and had a kitchenette.  The TV channels were a little hard to figure out, but other than that no issues with the room.  My only complaint would be that there is no continental breakfast included.  You had to spend about $10 per couple to get something most places give you for free.  FYI, there are several places to get breakfast within a few blocks of the hotel.  Overall, a good value for an overnight stay.MoreShow less</t>
-  </si>
-  <si>
-    <t>December 2012</t>
   </si>
   <si>
     <t>My wife and I stayed here the night before leaving on a cruise out of Galveston.  We selected this hotel because it was cheaper than those in Galveston, and is only about 15 miles from the cruise terminal.  The room was large, clean and had a kitchenette.  The TV channels were a little hard to figure out, but other than that no issues with the room.  My only complaint would be that there is no continental breakfast included.  You had to spend about $10 per couple to get something most places give you for free.  FYI, there are several places to get breakfast within a few blocks of the hotel.  Overall, a good value for an overnight stay.More</t>
@@ -895,6 +1392,45 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r140757343-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>140757343</t>
+  </si>
+  <si>
+    <t>09/20/2012</t>
+  </si>
+  <si>
+    <t>Pleasant Surprise!!!</t>
+  </si>
+  <si>
+    <t>When I booked this hotel through my priority rewards, I saw that there were mixed reviews.  But this hotel was a very good and pleasant surprise!!!!!!!!!  The rooms were very spacious and clean.  There were great and comfy beds, the lobby area was  very presentable, and the front desk staff was very friendly.  We stayed here for a trip to Galveston, TX, and it was only like a 10 min drive away.  The rooms were a great deal and very much worth the money you have paid for them!  I will definitely be choosing this hotel again for all of my trips to Galveston!  The only downfalls were the view and no pool! However, this would not deter me from staying at this property again!  I loved it!MoreShow less</t>
+  </si>
+  <si>
+    <t>When I booked this hotel through my priority rewards, I saw that there were mixed reviews.  But this hotel was a very good and pleasant surprise!!!!!!!!!  The rooms were very spacious and clean.  There were great and comfy beds, the lobby area was  very presentable, and the front desk staff was very friendly.  We stayed here for a trip to Galveston, TX, and it was only like a 10 min drive away.  The rooms were a great deal and very much worth the money you have paid for them!  I will definitely be choosing this hotel again for all of my trips to Galveston!  The only downfalls were the view and no pool! However, this would not deter me from staying at this property again!  I loved it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r140425139-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>140425139</t>
+  </si>
+  <si>
+    <t>09/16/2012</t>
+  </si>
+  <si>
+    <t>Clean, quiet, secluded property</t>
+  </si>
+  <si>
+    <t>I stayed here one night during mid-week to get some much needed rest.  If you are not familiar with this area, this hotel is a little bit off the beaten path as it is acually located on the feeder road of TX-146.  That being said, it is in a very quiet location while still being close to major shopping and restaurants in the area.  The cleaning crew were still putting the "finishing touches" on my room after I checked in, so I slipped away for about 20 minutes and came back to find everything in perfect order.  My third floor room was clean, spacious, and quiet.  I never heard any outside noises, and I got some excellent rest in the very comfortable bed.  This is a "low amenity" hotel with no swimming pool or free breakfast, but it has a later check out time (12PM) than most hotels and a very reasonable price compared with other hotels in this area.  I will stay here again, and I would definitely recommend this hotel to friends or family.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I stayed here one night during mid-week to get some much needed rest.  If you are not familiar with this area, this hotel is a little bit off the beaten path as it is acually located on the feeder road of TX-146.  That being said, it is in a very quiet location while still being close to major shopping and restaurants in the area.  The cleaning crew were still putting the "finishing touches" on my room after I checked in, so I slipped away for about 20 minutes and came back to find everything in perfect order.  My third floor room was clean, spacious, and quiet.  I never heard any outside noises, and I got some excellent rest in the very comfortable bed.  This is a "low amenity" hotel with no swimming pool or free breakfast, but it has a later check out time (12PM) than most hotels and a very reasonable price compared with other hotels in this area.  I will stay here again, and I would definitely recommend this hotel to friends or family.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r135731878-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -955,6 +1491,48 @@
     <t>I loved this hotel!! It was new, clean, roomy, comfortable, had dvd players in every room, free dvd's to rent, and it was in a safe area. The desk person was real nice and friendly and let us know about everything that comes with the room for free like the wifi and use of the gym equipment. The only down side was no pool but other then that is was great. I felt comfortable going outside at night and not haveing the fear of someone running up on me. I will stay here again and you cant beat the price expecially if your staying more then one night. Buy your food and cook it in the kitchenette, that has all you need to cook and save even more money, it even comes with a dishwasher and a refridgerator that makes ice.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r126234712-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>126234712</t>
+  </si>
+  <si>
+    <t>03/17/2012</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>We reserved a non smoking 2bed extra night cause we arrived a day early. They charged us $50 three different times for a deposit. I complained, they fixed it. We we're gonna stay till Sunday but left Saturday at 5:30am we were ready to go home. 6 hours later we get a call that they are charging me for smoking in there plus burning a comforter and ashes everywhere ...We don't smoke! They charged us before calling us. We had candy gum cigarettes plus scratch off tickets, Who can't read candy boxes.  Supposedly it smelled like cigarettes. We don't smoke.!! Im angry plus they took over $200 from our account!!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Texas City, responded to this reviewResponded April 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2012</t>
+  </si>
+  <si>
+    <t>We reserved a non smoking 2bed extra night cause we arrived a day early. They charged us $50 three different times for a deposit. I complained, they fixed it. We we're gonna stay till Sunday but left Saturday at 5:30am we were ready to go home. 6 hours later we get a call that they are charging me for smoking in there plus burning a comforter and ashes everywhere ...We don't smoke! They charged us before calling us. We had candy gum cigarettes plus scratch off tickets, Who can't read candy boxes.  Supposedly it smelled like cigarettes. We don't smoke.!! Im angry plus they took over $200 from our account!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r125966624-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>125966624</t>
+  </si>
+  <si>
+    <t>03/11/2012</t>
+  </si>
+  <si>
+    <t>great place to stay</t>
+  </si>
+  <si>
+    <t>Candlewood in Texas City was very reasonable for long-term stay.  The staff was very friendly and helpful.  The rooms were really nice, with granite counters in the FULL kitchen, minus an oven.  It had everything else:  garbage disposal, full-size refrigerator, microwave, small selection of dishes, pots and pans, etc.  Of course they provide you with t.p., kleenex, shampoo, and dish soap.  They even have FREE laundry.  They have a bbq outside, gym, dvd player and a few movies to check out.  I'm going to stay there whenever traveling.  It's the best!</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r124666842-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -970,9 +1548,6 @@
     <t>We stayed there so we could be close to Galveston to embark on the cruise.  We were greatly impressed .  the young lady on the desk  when we arrived was very helpful and extremely friendly.  The accommodation was great.  Would have been very comfortable for a long period of time.</t>
   </si>
   <si>
-    <t>February 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r121935416-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1012,6 +1587,42 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r113684455-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>113684455</t>
+  </si>
+  <si>
+    <t>06/15/2011</t>
+  </si>
+  <si>
+    <t>Very basic hotel with less than average eminities</t>
+  </si>
+  <si>
+    <t>A large group of us booked 6 rooms for a trip to the Galveston area. We wanted something less expensive, and close to highway access. We were quoted a price and given a deadline to secure the reservations. I beleive everyone was accomodated as expected, minus one person. They tried to use their AAA discount card, but the lady at the front desk never could explain where the discount was applied. Given the fact the guest was charged the same rate as everyone  else. Outside of that major issue, everything else seemed to run smoothly. The hotel seem to be fairly new. So, things like bedding, decor, and all common areas seem pretty clean! I slept very well in my queen size bed, and we made use of the full size refrigerator! The toiletries are pretty sparse, so pack your own! But that's to be expected. All in all we weren't disappointed. A few people in our group even made use of the fitness facility!  If your looking for a cheap place to stay outside of the Galveston madness, this place fits the bill. The customer service isn't much to write home about, but it's clean and quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>A large group of us booked 6 rooms for a trip to the Galveston area. We wanted something less expensive, and close to highway access. We were quoted a price and given a deadline to secure the reservations. I beleive everyone was accomodated as expected, minus one person. They tried to use their AAA discount card, but the lady at the front desk never could explain where the discount was applied. Given the fact the guest was charged the same rate as everyone  else. Outside of that major issue, everything else seemed to run smoothly. The hotel seem to be fairly new. So, things like bedding, decor, and all common areas seem pretty clean! I slept very well in my queen size bed, and we made use of the full size refrigerator! The toiletries are pretty sparse, so pack your own! But that's to be expected. All in all we weren't disappointed. A few people in our group even made use of the fitness facility!  If your looking for a cheap place to stay outside of the Galveston madness, this place fits the bill. The customer service isn't much to write home about, but it's clean and quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r90305449-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>90305449</t>
+  </si>
+  <si>
+    <t>12/20/2010</t>
+  </si>
+  <si>
+    <t>Brand New, Clean, and Friendly Staff!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel while visiting some family in Galveston, TX. The location was perfect, exactly halfway between Galveston and Keemah Boardwalk. The hotel was clean and well-kept, and the staff were very inviting, even though I arrived in the middle of the night. The room rates were half of what I was finding anywhere in Galveston Island and the hotel was twice a good in quality. I had a great experience here and I recommend this hotel to anyone.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r75075152-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1070,6 +1681,24 @@
   </si>
   <si>
     <t>I stayed in a studio room with a queen bed. I was impressed by all the appointments in the room. They truly do set you up for an extended stay with dishes, silverware and the like. The location is good and bad. It is close to most of Texas City so restaurants and shopping aren't far away. That said, there's not too much to talk about in Texas City. It's about a 20 minute drive from Galveston, and I know because I did it several times. They charge $75 for a non-refundable pet fee. I got lucky and they didn't find mine, but from what I heard, the owners (who are Indian) would have definitely stuck me with it if they found out. They have a food/supply pantry of sorts that I wasn't impressed with. Food options were very limited and VERY overpriced. I checked out their DVD library which was also quite limited. Not too many good titles either. I paid $80/night. All in all it was a pleasant experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1513517-r63057105-Candlewood_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>63057105</t>
+  </si>
+  <si>
+    <t>05/02/2010</t>
+  </si>
+  <si>
+    <t>Awesome!</t>
+  </si>
+  <si>
+    <t>I recommend this hotel to anyone that's looking for peace and quiet from the Galveston traffic. Staff was very friendly, room was very nice and comfortable.  Location is just right for visitors. Kemah Boardwalk is 11 mins away N and Galveston Island is about 15 mins away S.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +2233,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1612,18 +2241,12 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1671,14 +2294,10 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -1689,13 +2308,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
         <v>63</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>64</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1711,41 +2330,47 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
       </c>
       <c r="O4" t="s">
         <v>71</v>
       </c>
-      <c r="P4" t="s"/>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1793,13 +2418,13 @@
         <v>79</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1811,13 +2436,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
         <v>81</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>82</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -1833,34 +2458,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>85</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>86</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>87</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
         <v>88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" t="s">
-        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1872,13 +2497,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
         <v>90</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>91</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -1894,58 +2519,58 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>93</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>94</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>95</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>96</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
         <v>97</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>98</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
         <v>99</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>100</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8">
@@ -1961,34 +2586,34 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>102</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>103</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>104</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>105</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>106</v>
       </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>107</v>
-      </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1999,10 +2624,14 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -2018,7 +2647,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2027,45 +2656,43 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -2081,7 +2708,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2090,25 +2717,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2120,13 +2747,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -2142,7 +2769,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2151,28 +2778,32 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>128</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
@@ -2183,13 +2814,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
@@ -2205,34 +2836,34 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>132</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" t="s">
-        <v>135</v>
-      </c>
-      <c r="L12" t="s">
-        <v>136</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>137</v>
-      </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2243,10 +2874,14 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
@@ -2262,7 +2897,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2271,45 +2906,49 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
@@ -2325,7 +2964,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2334,49 +2973,39 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>3</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>151</v>
-      </c>
-      <c r="X14" t="s">
-        <v>152</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
@@ -2392,7 +3021,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2401,30 +3030,32 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
@@ -2437,7 +3068,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
@@ -2453,7 +3084,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2462,25 +3093,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2491,10 +3122,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>169</v>
+      </c>
+      <c r="X16" t="s">
+        <v>170</v>
+      </c>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
@@ -2510,7 +3145,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2519,37 +3154,37 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
         <v>4</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2557,7 +3192,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
@@ -2573,7 +3208,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2582,16 +3217,16 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
@@ -2600,7 +3235,7 @@
         <v>177</v>
       </c>
       <c r="O18" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2614,7 +3249,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
@@ -2630,7 +3265,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2639,43 +3274,45 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="X19" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
@@ -2691,7 +3328,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2700,33 +3337,29 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="s"/>
@@ -2736,7 +3369,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
@@ -2752,7 +3385,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2761,38 +3394,34 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="n">
         <v>5</v>
       </c>
       <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -2803,7 +3432,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
@@ -2819,7 +3448,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2828,49 +3457,39 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>205</v>
-      </c>
-      <c r="O22" t="s">
-        <v>71</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>4</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>211</v>
+      </c>
+      <c r="X22" t="s">
+        <v>212</v>
+      </c>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
@@ -2886,7 +3505,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2895,38 +3514,32 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
       </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
         <v>5</v>
@@ -2937,7 +3550,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24">
@@ -2953,7 +3566,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2962,37 +3575,33 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="J24" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s">
-        <v>217</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
@@ -3001,10 +3610,14 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>226</v>
+      </c>
+      <c r="X24" t="s">
+        <v>227</v>
+      </c>
       <c r="Y24" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
@@ -3020,7 +3633,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3029,38 +3642,32 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="J25" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="K25" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="O25" t="s">
         <v>53</v>
       </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
       <c r="R25" t="n">
         <v>4</v>
       </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>5</v>
@@ -3071,7 +3678,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26">
@@ -3087,7 +3694,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3096,22 +3703,26 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>234</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
@@ -3121,14 +3732,10 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>230</v>
-      </c>
-      <c r="X26" t="s">
-        <v>231</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27">
@@ -3144,7 +3751,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3153,45 +3760,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
+        <v>241</v>
+      </c>
+      <c r="J27" t="s">
+        <v>237</v>
+      </c>
+      <c r="K27" t="s">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s">
+        <v>243</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
         <v>234</v>
       </c>
-      <c r="J27" t="s">
-        <v>235</v>
-      </c>
-      <c r="K27" t="s">
-        <v>236</v>
-      </c>
-      <c r="L27" t="s">
-        <v>237</v>
-      </c>
-      <c r="M27" t="n">
-        <v>4</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
+      <c r="O27" t="s">
+        <v>88</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R27" t="n">
         <v>3</v>
       </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>244</v>
+      </c>
+      <c r="X27" t="s">
+        <v>245</v>
+      </c>
       <c r="Y27" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28">
@@ -3207,7 +3818,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3216,53 +3827,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K28" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
         <v>4</v>
       </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>244</v>
-      </c>
-      <c r="X28" t="s">
-        <v>245</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29">
@@ -3278,7 +3879,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3287,37 +3888,33 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="J29" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K29" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
         <v>4</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3329,7 +3926,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
@@ -3345,7 +3942,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3354,49 +3951,39 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="J30" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="O30" t="s">
-        <v>217</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
@@ -3412,7 +3999,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3421,51 +4008,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="J31" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="O31" t="s">
-        <v>62</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>3</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="X31" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Y31" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32">
@@ -3481,7 +4060,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3490,35 +4069,37 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J32" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K32" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s">
-        <v>71</v>
+        <v>281</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
@@ -3527,10 +4108,14 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>282</v>
+      </c>
+      <c r="X32" t="s">
+        <v>283</v>
+      </c>
       <c r="Y32" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33">
@@ -3546,7 +4131,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3555,38 +4140,34 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="J33" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="K33" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="O33" t="s">
-        <v>217</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R33" t="n">
         <v>3</v>
       </c>
-      <c r="S33" t="n">
-        <v>2</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>1</v>
@@ -3595,13 +4176,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="X33" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="Y33" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
@@ -3617,7 +4198,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3626,49 +4207,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="J34" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="K34" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
         <v>4</v>
       </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35">
@@ -3684,7 +4259,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3693,31 +4268,31 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="J35" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="K35" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="L35" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="O35" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R35" t="n">
         <v>4</v>
@@ -3727,7 +4302,7 @@
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3735,7 +4310,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36">
@@ -3751,7 +4326,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3760,41 +4335,41 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="J36" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="K36" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="O36" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R36" t="n">
         <v>3</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3802,7 +4377,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37">
@@ -3818,7 +4393,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3827,49 +4402,39 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="J37" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="K37" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="L37" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="O37" t="s">
         <v>71</v>
       </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38">
@@ -3885,7 +4450,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3894,22 +4459,22 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="J38" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="K38" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="L38" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="O38" t="s">
         <v>71</v>
@@ -3918,13 +4483,13 @@
         <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
         <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
@@ -3936,7 +4501,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39">
@@ -3952,7 +4517,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3961,41 +4526,41 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="J39" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="K39" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L39" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4003,7 +4568,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40">
@@ -4019,7 +4584,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4028,28 +4593,28 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="J40" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="K40" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L40" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="O40" t="s">
-        <v>71</v>
+        <v>281</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q40" t="n">
         <v>5</v>
@@ -4058,11 +4623,11 @@
         <v>5</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4070,7 +4635,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41">
@@ -4086,7 +4651,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4095,41 +4660,41 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="J41" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="K41" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="L41" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="O41" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4137,7 +4702,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42">
@@ -4153,7 +4718,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4162,39 +4727,41 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="J42" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="K42" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="L42" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="O42" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
-      </c>
-      <c r="S42" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4202,7 +4769,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43">
@@ -4218,7 +4785,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4227,37 +4794,37 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="J43" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="K43" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="L43" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="O43" t="s">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
         <v>3</v>
       </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
       <c r="R43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
@@ -4266,10 +4833,1949 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>356</v>
+      </c>
+      <c r="X43" t="s">
+        <v>357</v>
+      </c>
       <c r="Y43" t="s">
-        <v>349</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>359</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>360</v>
+      </c>
+      <c r="J44" t="s">
+        <v>361</v>
+      </c>
+      <c r="K44" t="s">
+        <v>362</v>
+      </c>
+      <c r="L44" t="s">
+        <v>363</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>364</v>
+      </c>
+      <c r="X44" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>367</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>368</v>
+      </c>
+      <c r="J45" t="s">
+        <v>369</v>
+      </c>
+      <c r="K45" t="s">
+        <v>370</v>
+      </c>
+      <c r="L45" t="s">
+        <v>371</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>372</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>373</v>
+      </c>
+      <c r="J46" t="s">
+        <v>374</v>
+      </c>
+      <c r="K46" t="s">
+        <v>375</v>
+      </c>
+      <c r="L46" t="s">
+        <v>376</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>377</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>378</v>
+      </c>
+      <c r="X46" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>381</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>382</v>
+      </c>
+      <c r="J47" t="s">
+        <v>383</v>
+      </c>
+      <c r="K47" t="s">
+        <v>384</v>
+      </c>
+      <c r="L47" t="s">
+        <v>385</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>377</v>
+      </c>
+      <c r="O47" t="s">
+        <v>88</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>387</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>388</v>
+      </c>
+      <c r="J48" t="s">
+        <v>389</v>
+      </c>
+      <c r="K48" t="s">
+        <v>390</v>
+      </c>
+      <c r="L48" t="s">
+        <v>391</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>392</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>393</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>394</v>
+      </c>
+      <c r="J49" t="s">
+        <v>395</v>
+      </c>
+      <c r="K49" t="s">
+        <v>396</v>
+      </c>
+      <c r="L49" t="s">
+        <v>397</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>392</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>399</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>400</v>
+      </c>
+      <c r="J50" t="s">
+        <v>401</v>
+      </c>
+      <c r="K50" t="s">
+        <v>402</v>
+      </c>
+      <c r="L50" t="s">
+        <v>403</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>392</v>
+      </c>
+      <c r="O50" t="s">
+        <v>281</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>405</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>406</v>
+      </c>
+      <c r="J51" t="s">
+        <v>407</v>
+      </c>
+      <c r="K51" t="s">
+        <v>408</v>
+      </c>
+      <c r="L51" t="s">
+        <v>409</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>410</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>411</v>
+      </c>
+      <c r="X51" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>414</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>415</v>
+      </c>
+      <c r="J52" t="s">
+        <v>416</v>
+      </c>
+      <c r="K52" t="s">
+        <v>417</v>
+      </c>
+      <c r="L52" t="s">
+        <v>418</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>410</v>
+      </c>
+      <c r="O52" t="s">
+        <v>71</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>419</v>
+      </c>
+      <c r="X52" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>422</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>423</v>
+      </c>
+      <c r="J53" t="s">
+        <v>424</v>
+      </c>
+      <c r="K53" t="s">
+        <v>425</v>
+      </c>
+      <c r="L53" t="s">
+        <v>426</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>427</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>429</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>430</v>
+      </c>
+      <c r="J54" t="s">
+        <v>431</v>
+      </c>
+      <c r="K54" t="s">
+        <v>432</v>
+      </c>
+      <c r="L54" t="s">
+        <v>433</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>427</v>
+      </c>
+      <c r="O54" t="s">
+        <v>88</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>435</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>436</v>
+      </c>
+      <c r="J55" t="s">
+        <v>437</v>
+      </c>
+      <c r="K55" t="s">
+        <v>438</v>
+      </c>
+      <c r="L55" t="s">
+        <v>439</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>440</v>
+      </c>
+      <c r="O55" t="s">
+        <v>281</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>441</v>
+      </c>
+      <c r="X55" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>444</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>445</v>
+      </c>
+      <c r="J56" t="s">
+        <v>446</v>
+      </c>
+      <c r="K56" t="s">
+        <v>447</v>
+      </c>
+      <c r="L56" t="s">
+        <v>448</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>449</v>
+      </c>
+      <c r="O56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>450</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>451</v>
+      </c>
+      <c r="J57" t="s">
+        <v>452</v>
+      </c>
+      <c r="K57" t="s">
+        <v>453</v>
+      </c>
+      <c r="L57" t="s">
+        <v>454</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>449</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>456</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>457</v>
+      </c>
+      <c r="J58" t="s">
+        <v>458</v>
+      </c>
+      <c r="K58" t="s">
+        <v>459</v>
+      </c>
+      <c r="L58" t="s">
+        <v>460</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>461</v>
+      </c>
+      <c r="O58" t="s">
+        <v>281</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>463</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>464</v>
+      </c>
+      <c r="J59" t="s">
+        <v>465</v>
+      </c>
+      <c r="K59" t="s">
+        <v>466</v>
+      </c>
+      <c r="L59" t="s">
+        <v>467</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>468</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>470</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>471</v>
+      </c>
+      <c r="J60" t="s">
+        <v>472</v>
+      </c>
+      <c r="K60" t="s">
+        <v>473</v>
+      </c>
+      <c r="L60" t="s">
+        <v>474</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>475</v>
+      </c>
+      <c r="O60" t="s">
+        <v>189</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>477</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>478</v>
+      </c>
+      <c r="J61" t="s">
+        <v>479</v>
+      </c>
+      <c r="K61" t="s">
+        <v>480</v>
+      </c>
+      <c r="L61" t="s">
+        <v>481</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>475</v>
+      </c>
+      <c r="O61" t="s">
+        <v>88</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>483</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>484</v>
+      </c>
+      <c r="J62" t="s">
+        <v>485</v>
+      </c>
+      <c r="K62" t="s">
+        <v>486</v>
+      </c>
+      <c r="L62" t="s">
+        <v>487</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>488</v>
+      </c>
+      <c r="X62" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>491</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>492</v>
+      </c>
+      <c r="J63" t="s">
+        <v>493</v>
+      </c>
+      <c r="K63" t="s">
+        <v>494</v>
+      </c>
+      <c r="L63" t="s">
+        <v>495</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>496</v>
+      </c>
+      <c r="O63" t="s">
+        <v>88</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>497</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>498</v>
+      </c>
+      <c r="J64" t="s">
+        <v>499</v>
+      </c>
+      <c r="K64" t="s">
+        <v>500</v>
+      </c>
+      <c r="L64" t="s">
+        <v>501</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>496</v>
+      </c>
+      <c r="O64" t="s">
+        <v>88</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>502</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>503</v>
+      </c>
+      <c r="J65" t="s">
+        <v>504</v>
+      </c>
+      <c r="K65" t="s">
+        <v>505</v>
+      </c>
+      <c r="L65" t="s">
+        <v>506</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>507</v>
+      </c>
+      <c r="O65" t="s">
+        <v>71</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>509</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>510</v>
+      </c>
+      <c r="J66" t="s">
+        <v>511</v>
+      </c>
+      <c r="K66" t="s">
+        <v>512</v>
+      </c>
+      <c r="L66" t="s">
+        <v>513</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>514</v>
+      </c>
+      <c r="O66" t="s">
+        <v>88</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>515</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>516</v>
+      </c>
+      <c r="J67" t="s">
+        <v>517</v>
+      </c>
+      <c r="K67" t="s">
+        <v>518</v>
+      </c>
+      <c r="L67" t="s">
+        <v>519</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>521</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>522</v>
+      </c>
+      <c r="J68" t="s">
+        <v>523</v>
+      </c>
+      <c r="K68" t="s">
+        <v>524</v>
+      </c>
+      <c r="L68" t="s">
+        <v>525</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>526</v>
+      </c>
+      <c r="O68" t="s">
+        <v>88</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>527</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>528</v>
+      </c>
+      <c r="J69" t="s">
+        <v>529</v>
+      </c>
+      <c r="K69" t="s">
+        <v>530</v>
+      </c>
+      <c r="L69" t="s">
+        <v>531</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>532</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>533</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>534</v>
+      </c>
+      <c r="J70" t="s">
+        <v>535</v>
+      </c>
+      <c r="K70" t="s">
+        <v>536</v>
+      </c>
+      <c r="L70" t="s">
+        <v>537</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>538</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>540</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>541</v>
+      </c>
+      <c r="J71" t="s">
+        <v>542</v>
+      </c>
+      <c r="K71" t="s">
+        <v>543</v>
+      </c>
+      <c r="L71" t="s">
+        <v>544</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>545</v>
+      </c>
+      <c r="O71" t="s">
+        <v>281</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59941</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>547</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>548</v>
+      </c>
+      <c r="J72" t="s">
+        <v>549</v>
+      </c>
+      <c r="K72" t="s">
+        <v>550</v>
+      </c>
+      <c r="L72" t="s">
+        <v>551</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>552</v>
+      </c>
+      <c r="O72" t="s">
+        <v>281</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
